--- a/libretas_bancarias/subidas/DATOS_BISA_OFICIAL.xlsx
+++ b/libretas_bancarias/subidas/DATOS_BISA_OFICIAL.xlsx
@@ -2426,11 +2426,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K653"/>
+    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
@@ -2468,7 +2471,7 @@
         <v>320</v>
       </c>
       <c r="F2" s="3">
-        <f>+F1+E2</f>
+        <f t="shared" ref="F2:F65" si="0">+F1+E2</f>
         <v>94157.83</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2504,7 +2507,7 @@
         <v>98.47</v>
       </c>
       <c r="F3" s="3">
-        <f>+F2+E3</f>
+        <f t="shared" si="0"/>
         <v>94256.3</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -2540,7 +2543,7 @@
         <v>320</v>
       </c>
       <c r="F4" s="3">
-        <f>+F3+E4</f>
+        <f t="shared" si="0"/>
         <v>94576.3</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2576,7 +2579,7 @@
         <v>320</v>
       </c>
       <c r="F5" s="3">
-        <f>+F4+E5</f>
+        <f t="shared" si="0"/>
         <v>94896.3</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -2612,7 +2615,7 @@
         <v>385</v>
       </c>
       <c r="F6" s="3">
-        <f>+F5+E6</f>
+        <f t="shared" si="0"/>
         <v>95281.3</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2648,7 +2651,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="3">
-        <f>+F6+E7</f>
+        <f t="shared" si="0"/>
         <v>95381.3</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -2684,7 +2687,7 @@
         <v>385</v>
       </c>
       <c r="F8" s="3">
-        <f>+F7+E8</f>
+        <f t="shared" si="0"/>
         <v>95766.3</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2720,7 +2723,7 @@
         <v>320</v>
       </c>
       <c r="F9" s="3">
-        <f>+F8+E9</f>
+        <f t="shared" si="0"/>
         <v>96086.3</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -2756,7 +2759,7 @@
         <v>360</v>
       </c>
       <c r="F10" s="3">
-        <f>+F9+E10</f>
+        <f t="shared" si="0"/>
         <v>96446.3</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2792,7 +2795,7 @@
         <v>650</v>
       </c>
       <c r="F11" s="3">
-        <f>+F10+E11</f>
+        <f t="shared" si="0"/>
         <v>97096.3</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -2828,7 +2831,7 @@
         <v>385</v>
       </c>
       <c r="F12" s="3">
-        <f>+F11+E12</f>
+        <f t="shared" si="0"/>
         <v>97481.3</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2864,7 +2867,7 @@
         <v>3600</v>
       </c>
       <c r="F13" s="3">
-        <f>+F12+E13</f>
+        <f t="shared" si="0"/>
         <v>101081.3</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -2900,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="F14" s="3">
-        <f>+F13+E14</f>
+        <f t="shared" si="0"/>
         <v>101401.3</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2936,7 +2939,7 @@
         <v>152</v>
       </c>
       <c r="F15" s="3">
-        <f>+F14+E15</f>
+        <f t="shared" si="0"/>
         <v>101553.3</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -2972,7 +2975,7 @@
         <v>385</v>
       </c>
       <c r="F16" s="3">
-        <f>+F15+E16</f>
+        <f t="shared" si="0"/>
         <v>101938.3</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -3008,7 +3011,7 @@
         <v>360</v>
       </c>
       <c r="F17" s="3">
-        <f>+F16+E17</f>
+        <f t="shared" si="0"/>
         <v>102298.3</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -3044,7 +3047,7 @@
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <f>+F17+E18</f>
+        <f t="shared" si="0"/>
         <v>102398.3</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -3080,7 +3083,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="3">
-        <f>+F18+E19</f>
+        <f t="shared" si="0"/>
         <v>102498.3</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -3116,7 +3119,7 @@
         <v>101</v>
       </c>
       <c r="F20" s="3">
-        <f>+F19+E20</f>
+        <f t="shared" si="0"/>
         <v>102599.3</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3152,7 +3155,7 @@
         <v>360</v>
       </c>
       <c r="F21" s="3">
-        <f>+F20+E21</f>
+        <f t="shared" si="0"/>
         <v>102959.3</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -3188,7 +3191,7 @@
         <v>360</v>
       </c>
       <c r="F22" s="3">
-        <f>+F21+E22</f>
+        <f t="shared" si="0"/>
         <v>103319.3</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -3224,7 +3227,7 @@
         <v>400</v>
       </c>
       <c r="F23" s="3">
-        <f>+F22+E23</f>
+        <f t="shared" si="0"/>
         <v>103719.3</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -3260,7 +3263,7 @@
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <f>+F23+E24</f>
+        <f t="shared" si="0"/>
         <v>104119.3</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -3294,7 +3297,7 @@
         <v>400</v>
       </c>
       <c r="F25" s="3">
-        <f>+F24+E25</f>
+        <f t="shared" si="0"/>
         <v>104519.3</v>
       </c>
       <c r="G25" s="9" t="s">
@@ -3330,7 +3333,7 @@
         <v>385</v>
       </c>
       <c r="F26" s="3">
-        <f>+F25+E26</f>
+        <f t="shared" si="0"/>
         <v>104904.3</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3364,7 +3367,7 @@
         <v>385</v>
       </c>
       <c r="F27" s="3">
-        <f>+F26+E27</f>
+        <f t="shared" si="0"/>
         <v>105289.3</v>
       </c>
       <c r="G27" s="9" t="s">
@@ -3400,7 +3403,7 @@
         <v>12947.5</v>
       </c>
       <c r="F28" s="3">
-        <f>+F27+E28</f>
+        <f t="shared" si="0"/>
         <v>118236.8</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -3436,7 +3439,7 @@
         <v>1760</v>
       </c>
       <c r="F29" s="3">
-        <f>+F28+E29</f>
+        <f t="shared" si="0"/>
         <v>119996.8</v>
       </c>
       <c r="G29" s="9" t="s">
@@ -3472,7 +3475,7 @@
         <v>320</v>
       </c>
       <c r="F30" s="3">
-        <f>+F29+E30</f>
+        <f t="shared" si="0"/>
         <v>120316.8</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -3508,7 +3511,7 @@
         <v>320</v>
       </c>
       <c r="F31" s="3">
-        <f>+F30+E31</f>
+        <f t="shared" si="0"/>
         <v>120636.8</v>
       </c>
       <c r="G31" s="9" t="s">
@@ -3544,7 +3547,7 @@
         <v>320</v>
       </c>
       <c r="F32" s="3">
-        <f>+F31+E32</f>
+        <f t="shared" si="0"/>
         <v>120956.8</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3580,7 +3583,7 @@
         <v>700</v>
       </c>
       <c r="F33" s="3">
-        <f>+F32+E33</f>
+        <f t="shared" si="0"/>
         <v>121656.8</v>
       </c>
       <c r="G33" s="9" t="s">
@@ -3616,7 +3619,7 @@
         <v>320</v>
       </c>
       <c r="F34" s="3">
-        <f>+F33+E34</f>
+        <f t="shared" si="0"/>
         <v>121976.8</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3652,7 +3655,7 @@
         <v>510</v>
       </c>
       <c r="F35" s="3">
-        <f>+F34+E35</f>
+        <f t="shared" si="0"/>
         <v>122486.8</v>
       </c>
       <c r="G35" s="9" t="s">
@@ -3688,7 +3691,7 @@
         <v>13920</v>
       </c>
       <c r="F36" s="3">
-        <f>+F35+E36</f>
+        <f t="shared" si="0"/>
         <v>136406.79999999999</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3724,7 +3727,7 @@
         <v>250</v>
       </c>
       <c r="F37" s="3">
-        <f>+F36+E37</f>
+        <f t="shared" si="0"/>
         <v>136656.79999999999</v>
       </c>
       <c r="G37" s="9" t="s">
@@ -3760,7 +3763,7 @@
         <v>320</v>
       </c>
       <c r="F38" s="3">
-        <f>+F37+E38</f>
+        <f t="shared" si="0"/>
         <v>136976.79999999999</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -3796,7 +3799,7 @@
         <v>1913</v>
       </c>
       <c r="F39" s="3">
-        <f>+F38+E39</f>
+        <f t="shared" si="0"/>
         <v>138889.79999999999</v>
       </c>
       <c r="G39" s="9" t="s">
@@ -3832,7 +3835,7 @@
         <v>320</v>
       </c>
       <c r="F40" s="3">
-        <f>+F39+E40</f>
+        <f t="shared" si="0"/>
         <v>139209.79999999999</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3868,7 +3871,7 @@
         <v>350</v>
       </c>
       <c r="F41" s="3">
-        <f>+F40+E41</f>
+        <f t="shared" si="0"/>
         <v>139559.79999999999</v>
       </c>
       <c r="G41" s="9" t="s">
@@ -3904,7 +3907,7 @@
         <v>360</v>
       </c>
       <c r="F42" s="3">
-        <f>+F41+E42</f>
+        <f t="shared" si="0"/>
         <v>139919.79999999999</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3940,7 +3943,7 @@
         <v>385</v>
       </c>
       <c r="F43" s="3">
-        <f>+F42+E43</f>
+        <f t="shared" si="0"/>
         <v>140304.79999999999</v>
       </c>
       <c r="G43" s="9" t="s">
@@ -3976,7 +3979,7 @@
         <v>70</v>
       </c>
       <c r="F44" s="3">
-        <f>+F43+E44</f>
+        <f t="shared" si="0"/>
         <v>140374.79999999999</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -4012,7 +4015,7 @@
         <v>360</v>
       </c>
       <c r="F45" s="3">
-        <f>+F44+E45</f>
+        <f t="shared" si="0"/>
         <v>140734.79999999999</v>
       </c>
       <c r="G45" s="9" t="s">
@@ -4048,7 +4051,7 @@
         <v>385</v>
       </c>
       <c r="F46" s="3">
-        <f>+F45+E46</f>
+        <f t="shared" si="0"/>
         <v>141119.79999999999</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -4084,7 +4087,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <f>+F46+E47</f>
+        <f t="shared" si="0"/>
         <v>141219.79999999999</v>
       </c>
       <c r="G47" s="9" t="s">
@@ -4120,7 +4123,7 @@
         <v>1800</v>
       </c>
       <c r="F48" s="3">
-        <f>+F47+E48</f>
+        <f t="shared" si="0"/>
         <v>143019.79999999999</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -4156,7 +4159,7 @@
         <v>360</v>
       </c>
       <c r="F49" s="3">
-        <f>+F48+E49</f>
+        <f t="shared" si="0"/>
         <v>143379.79999999999</v>
       </c>
       <c r="G49" s="9" t="s">
@@ -4192,7 +4195,7 @@
         <v>100</v>
       </c>
       <c r="F50" s="3">
-        <f>+F49+E50</f>
+        <f t="shared" si="0"/>
         <v>143479.79999999999</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -4228,7 +4231,7 @@
         <v>100</v>
       </c>
       <c r="F51" s="3">
-        <f>+F50+E51</f>
+        <f t="shared" si="0"/>
         <v>143579.79999999999</v>
       </c>
       <c r="G51" s="9" t="s">
@@ -4264,7 +4267,7 @@
         <v>360</v>
       </c>
       <c r="F52" s="3">
-        <f>+F51+E52</f>
+        <f t="shared" si="0"/>
         <v>143939.79999999999</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -4300,7 +4303,7 @@
         <v>505</v>
       </c>
       <c r="F53" s="3">
-        <f>+F52+E53</f>
+        <f t="shared" si="0"/>
         <v>144444.79999999999</v>
       </c>
       <c r="G53" s="9" t="s">
@@ -4336,7 +4339,7 @@
         <v>3870</v>
       </c>
       <c r="F54" s="3">
-        <f>+F53+E54</f>
+        <f t="shared" si="0"/>
         <v>148314.79999999999</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -4372,7 +4375,7 @@
         <v>1267.5</v>
       </c>
       <c r="F55" s="3">
-        <f>+F54+E55</f>
+        <f t="shared" si="0"/>
         <v>149582.29999999999</v>
       </c>
       <c r="G55" s="9" t="s">
@@ -4408,7 +4411,7 @@
         <v>320</v>
       </c>
       <c r="F56" s="3">
-        <f>+F55+E56</f>
+        <f t="shared" si="0"/>
         <v>149902.29999999999</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -4444,7 +4447,7 @@
         <v>360</v>
       </c>
       <c r="F57" s="3">
-        <f>+F56+E57</f>
+        <f t="shared" si="0"/>
         <v>150262.29999999999</v>
       </c>
       <c r="G57" s="9" t="s">
@@ -4480,7 +4483,7 @@
         <v>467.5</v>
       </c>
       <c r="F58" s="3">
-        <f>+F57+E58</f>
+        <f t="shared" si="0"/>
         <v>150729.79999999999</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -4516,7 +4519,7 @@
         <v>360</v>
       </c>
       <c r="F59" s="3">
-        <f>+F58+E59</f>
+        <f t="shared" si="0"/>
         <v>151089.79999999999</v>
       </c>
       <c r="G59" s="9" t="s">
@@ -4552,7 +4555,7 @@
         <v>320</v>
       </c>
       <c r="F60" s="3">
-        <f>+F59+E60</f>
+        <f t="shared" si="0"/>
         <v>151409.79999999999</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -4588,7 +4591,7 @@
         <v>385</v>
       </c>
       <c r="F61" s="3">
-        <f>+F60+E61</f>
+        <f t="shared" si="0"/>
         <v>151794.79999999999</v>
       </c>
       <c r="G61" s="9" t="s">
@@ -4624,7 +4627,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <f>+F61+E62</f>
+        <f t="shared" si="0"/>
         <v>151894.79999999999</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -4660,7 +4663,7 @@
         <v>385</v>
       </c>
       <c r="F63" s="3">
-        <f>+F62+E63</f>
+        <f t="shared" si="0"/>
         <v>152279.79999999999</v>
       </c>
       <c r="G63" s="9" t="s">
@@ -4696,7 +4699,7 @@
         <v>3450</v>
       </c>
       <c r="F64" s="3">
-        <f>+F63+E64</f>
+        <f t="shared" si="0"/>
         <v>155729.79999999999</v>
       </c>
       <c r="G64" s="2" t="s">
@@ -4732,7 +4735,7 @@
         <v>140</v>
       </c>
       <c r="F65" s="3">
-        <f>+F64+E65</f>
+        <f t="shared" si="0"/>
         <v>155869.79999999999</v>
       </c>
       <c r="G65" s="9" t="s">
@@ -4768,7 +4771,7 @@
         <v>320</v>
       </c>
       <c r="F66" s="3">
-        <f>+F65+E66</f>
+        <f t="shared" ref="F66:F129" si="1">+F65+E66</f>
         <v>156189.79999999999</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -4804,7 +4807,7 @@
         <v>360</v>
       </c>
       <c r="F67" s="3">
-        <f>+F66+E67</f>
+        <f t="shared" si="1"/>
         <v>156549.79999999999</v>
       </c>
       <c r="G67" s="9" t="s">
@@ -4840,7 +4843,7 @@
         <v>360</v>
       </c>
       <c r="F68" s="3">
-        <f>+F67+E68</f>
+        <f t="shared" si="1"/>
         <v>156909.79999999999</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -4876,7 +4879,7 @@
         <v>24360</v>
       </c>
       <c r="F69" s="3">
-        <f>+F68+E69</f>
+        <f t="shared" si="1"/>
         <v>181269.8</v>
       </c>
       <c r="G69" s="9" t="s">
@@ -4912,7 +4915,7 @@
         <v>360</v>
       </c>
       <c r="F70" s="3">
-        <f>+F69+E70</f>
+        <f t="shared" si="1"/>
         <v>181629.8</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -4948,7 +4951,7 @@
         <v>320</v>
       </c>
       <c r="F71" s="3">
-        <f>+F70+E71</f>
+        <f t="shared" si="1"/>
         <v>181949.8</v>
       </c>
       <c r="G71" s="9" t="s">
@@ -4984,7 +4987,7 @@
         <v>360</v>
       </c>
       <c r="F72" s="3">
-        <f>+F71+E72</f>
+        <f t="shared" si="1"/>
         <v>182309.8</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -5020,7 +5023,7 @@
         <v>2520</v>
       </c>
       <c r="F73" s="3">
-        <f>+F72+E73</f>
+        <f t="shared" si="1"/>
         <v>184829.8</v>
       </c>
       <c r="G73" s="9" t="s">
@@ -5056,7 +5059,7 @@
         <v>360</v>
       </c>
       <c r="F74" s="3">
-        <f>+F73+E74</f>
+        <f t="shared" si="1"/>
         <v>185189.8</v>
       </c>
       <c r="G74" s="2" t="s">
@@ -5092,7 +5095,7 @@
         <v>350</v>
       </c>
       <c r="F75" s="3">
-        <f>+F74+E75</f>
+        <f t="shared" si="1"/>
         <v>185539.8</v>
       </c>
       <c r="G75" s="9" t="s">
@@ -5128,7 +5131,7 @@
         <v>320</v>
       </c>
       <c r="F76" s="3">
-        <f>+F75+E76</f>
+        <f t="shared" si="1"/>
         <v>185859.8</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -5164,7 +5167,7 @@
         <v>2860</v>
       </c>
       <c r="F77" s="3">
-        <f>+F76+E77</f>
+        <f t="shared" si="1"/>
         <v>188719.8</v>
       </c>
       <c r="G77" s="9" t="s">
@@ -5200,7 +5203,7 @@
         <v>2640</v>
       </c>
       <c r="F78" s="3">
-        <f>+F77+E78</f>
+        <f t="shared" si="1"/>
         <v>191359.8</v>
       </c>
       <c r="G78" s="2" t="s">
@@ -5236,7 +5239,7 @@
         <v>887.24</v>
       </c>
       <c r="F79" s="3">
-        <f>+F78+E79</f>
+        <f t="shared" si="1"/>
         <v>192247.03999999998</v>
       </c>
       <c r="G79" s="9" t="s">
@@ -5272,7 +5275,7 @@
         <v>350</v>
       </c>
       <c r="F80" s="3">
-        <f>+F79+E80</f>
+        <f t="shared" si="1"/>
         <v>192597.03999999998</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -5308,7 +5311,7 @@
         <v>350</v>
       </c>
       <c r="F81" s="3">
-        <f>+F80+E81</f>
+        <f t="shared" si="1"/>
         <v>192947.03999999998</v>
       </c>
       <c r="G81" s="9" t="s">
@@ -5344,7 +5347,7 @@
         <v>840</v>
       </c>
       <c r="F82" s="3">
-        <f>+F81+E82</f>
+        <f t="shared" si="1"/>
         <v>193787.03999999998</v>
       </c>
       <c r="G82" s="2" t="s">
@@ -5380,7 +5383,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <f>+F82+E83</f>
+        <f t="shared" si="1"/>
         <v>193887.03999999998</v>
       </c>
       <c r="G83" s="9" t="s">
@@ -5416,7 +5419,7 @@
         <v>385</v>
       </c>
       <c r="F84" s="3">
-        <f>+F83+E84</f>
+        <f t="shared" si="1"/>
         <v>194272.03999999998</v>
       </c>
       <c r="G84" s="2" t="s">
@@ -5452,7 +5455,7 @@
         <v>700</v>
       </c>
       <c r="F85" s="3">
-        <f>+F84+E85</f>
+        <f t="shared" si="1"/>
         <v>194972.03999999998</v>
       </c>
       <c r="G85" s="9" t="s">
@@ -5488,7 +5491,7 @@
         <v>100</v>
       </c>
       <c r="F86" s="3">
-        <f>+F85+E86</f>
+        <f t="shared" si="1"/>
         <v>195072.03999999998</v>
       </c>
       <c r="G86" s="2" t="s">
@@ -5524,7 +5527,7 @@
         <v>385</v>
       </c>
       <c r="F87" s="3">
-        <f>+F86+E87</f>
+        <f t="shared" si="1"/>
         <v>195457.03999999998</v>
       </c>
       <c r="G87" s="9" t="s">
@@ -5560,7 +5563,7 @@
         <v>360</v>
       </c>
       <c r="F88" s="3">
-        <f>+F87+E88</f>
+        <f t="shared" si="1"/>
         <v>195817.03999999998</v>
       </c>
       <c r="G88" s="2" t="s">
@@ -5596,7 +5599,7 @@
         <v>360</v>
       </c>
       <c r="F89" s="3">
-        <f>+F88+E89</f>
+        <f t="shared" si="1"/>
         <v>196177.03999999998</v>
       </c>
       <c r="G89" s="9" t="s">
@@ -5632,7 +5635,7 @@
         <v>360</v>
       </c>
       <c r="F90" s="3">
-        <f>+F89+E90</f>
+        <f t="shared" si="1"/>
         <v>196537.03999999998</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -5668,7 +5671,7 @@
         <v>1860</v>
       </c>
       <c r="F91" s="3">
-        <f>+F90+E91</f>
+        <f t="shared" si="1"/>
         <v>198397.03999999998</v>
       </c>
       <c r="G91" s="9" t="s">
@@ -5704,7 +5707,7 @@
         <v>880</v>
       </c>
       <c r="F92" s="3">
-        <f>+F91+E92</f>
+        <f t="shared" si="1"/>
         <v>199277.03999999998</v>
       </c>
       <c r="G92" s="2" t="s">
@@ -5740,7 +5743,7 @@
         <v>490</v>
       </c>
       <c r="F93" s="3">
-        <f>+F92+E93</f>
+        <f t="shared" si="1"/>
         <v>199767.03999999998</v>
       </c>
       <c r="G93" s="9" t="s">
@@ -5776,7 +5779,7 @@
         <v>320</v>
       </c>
       <c r="F94" s="3">
-        <f>+F93+E94</f>
+        <f t="shared" si="1"/>
         <v>200087.03999999998</v>
       </c>
       <c r="G94" s="2" t="s">
@@ -5812,7 +5815,7 @@
         <v>70</v>
       </c>
       <c r="F95" s="3">
-        <f>+F94+E95</f>
+        <f t="shared" si="1"/>
         <v>200157.03999999998</v>
       </c>
       <c r="G95" s="9" t="s">
@@ -5848,7 +5851,7 @@
         <v>320</v>
       </c>
       <c r="F96" s="3">
-        <f>+F95+E96</f>
+        <f t="shared" si="1"/>
         <v>200477.03999999998</v>
       </c>
       <c r="G96" s="2" t="s">
@@ -5884,7 +5887,7 @@
         <v>385</v>
       </c>
       <c r="F97" s="3">
-        <f>+F96+E97</f>
+        <f t="shared" si="1"/>
         <v>200862.03999999998</v>
       </c>
       <c r="G97" s="9" t="s">
@@ -5920,7 +5923,7 @@
         <v>385</v>
       </c>
       <c r="F98" s="3">
-        <f>+F97+E98</f>
+        <f t="shared" si="1"/>
         <v>201247.03999999998</v>
       </c>
       <c r="G98" s="2" t="s">
@@ -5956,7 +5959,7 @@
         <v>350</v>
       </c>
       <c r="F99" s="3">
-        <f>+F98+E99</f>
+        <f t="shared" si="1"/>
         <v>201597.03999999998</v>
       </c>
       <c r="G99" s="9" t="s">
@@ -5992,7 +5995,7 @@
         <v>350</v>
       </c>
       <c r="F100" s="3">
-        <f>+F99+E100</f>
+        <f t="shared" si="1"/>
         <v>201947.03999999998</v>
       </c>
       <c r="G100" s="2" t="s">
@@ -6028,7 +6031,7 @@
         <v>360</v>
       </c>
       <c r="F101" s="3">
-        <f>+F100+E101</f>
+        <f t="shared" si="1"/>
         <v>202307.03999999998</v>
       </c>
       <c r="G101" s="9" t="s">
@@ -6064,7 +6067,7 @@
         <v>280</v>
       </c>
       <c r="F102" s="3">
-        <f>+F101+E102</f>
+        <f t="shared" si="1"/>
         <v>202587.03999999998</v>
       </c>
       <c r="G102" s="2" t="s">
@@ -6100,7 +6103,7 @@
         <v>350</v>
       </c>
       <c r="F103" s="3">
-        <f>+F102+E103</f>
+        <f t="shared" si="1"/>
         <v>202937.03999999998</v>
       </c>
       <c r="G103" s="9" t="s">
@@ -6136,7 +6139,7 @@
         <v>350</v>
       </c>
       <c r="F104" s="3">
-        <f>+F103+E104</f>
+        <f t="shared" si="1"/>
         <v>203287.03999999998</v>
       </c>
       <c r="G104" s="2" t="s">
@@ -6172,7 +6175,7 @@
         <v>360</v>
       </c>
       <c r="F105" s="3">
-        <f>+F104+E105</f>
+        <f t="shared" si="1"/>
         <v>203647.03999999998</v>
       </c>
       <c r="G105" s="9" t="s">
@@ -6208,7 +6211,7 @@
         <v>380</v>
       </c>
       <c r="F106" s="3">
-        <f>+F105+E106</f>
+        <f t="shared" si="1"/>
         <v>204027.03999999998</v>
       </c>
       <c r="G106" s="2" t="s">
@@ -6244,7 +6247,7 @@
         <v>5</v>
       </c>
       <c r="F107" s="3">
-        <f>+F106+E107</f>
+        <f t="shared" si="1"/>
         <v>204032.03999999998</v>
       </c>
       <c r="G107" s="9" t="s">
@@ -6280,7 +6283,7 @@
         <v>1200</v>
       </c>
       <c r="F108" s="3">
-        <f>+F107+E108</f>
+        <f t="shared" si="1"/>
         <v>205232.03999999998</v>
       </c>
       <c r="G108" s="2" t="s">
@@ -6316,7 +6319,7 @@
         <v>1443</v>
       </c>
       <c r="F109" s="3">
-        <f>+F108+E109</f>
+        <f t="shared" si="1"/>
         <v>206675.03999999998</v>
       </c>
       <c r="G109" s="9" t="s">
@@ -6352,7 +6355,7 @@
         <v>360</v>
       </c>
       <c r="F110" s="3">
-        <f>+F109+E110</f>
+        <f t="shared" si="1"/>
         <v>207035.03999999998</v>
       </c>
       <c r="G110" s="2" t="s">
@@ -6388,7 +6391,7 @@
         <v>385</v>
       </c>
       <c r="F111" s="3">
-        <f>+F110+E111</f>
+        <f t="shared" si="1"/>
         <v>207420.03999999998</v>
       </c>
       <c r="G111" s="9" t="s">
@@ -6424,7 +6427,7 @@
         <v>385</v>
       </c>
       <c r="F112" s="3">
-        <f>+F111+E112</f>
+        <f t="shared" si="1"/>
         <v>207805.03999999998</v>
       </c>
       <c r="G112" s="2" t="s">
@@ -6460,7 +6463,7 @@
         <v>360</v>
       </c>
       <c r="F113" s="3">
-        <f>+F112+E113</f>
+        <f t="shared" si="1"/>
         <v>208165.03999999998</v>
       </c>
       <c r="G113" s="9" t="s">
@@ -6496,7 +6499,7 @@
         <v>320</v>
       </c>
       <c r="F114" s="3">
-        <f>+F113+E114</f>
+        <f t="shared" si="1"/>
         <v>208485.03999999998</v>
       </c>
       <c r="G114" s="2" t="s">
@@ -6532,7 +6535,7 @@
         <v>350</v>
       </c>
       <c r="F115" s="3">
-        <f>+F114+E115</f>
+        <f t="shared" si="1"/>
         <v>208835.03999999998</v>
       </c>
       <c r="G115" s="9" t="s">
@@ -6568,7 +6571,7 @@
         <v>100</v>
       </c>
       <c r="F116" s="3">
-        <f>+F115+E116</f>
+        <f t="shared" si="1"/>
         <v>208935.03999999998</v>
       </c>
       <c r="G116" s="2" t="s">
@@ -6604,7 +6607,7 @@
         <v>320</v>
       </c>
       <c r="F117" s="3">
-        <f>+F116+E117</f>
+        <f t="shared" si="1"/>
         <v>209255.03999999998</v>
       </c>
       <c r="G117" s="9" t="s">
@@ -6640,7 +6643,7 @@
         <v>385</v>
       </c>
       <c r="F118" s="3">
-        <f>+F117+E118</f>
+        <f t="shared" si="1"/>
         <v>209640.03999999998</v>
       </c>
       <c r="G118" s="2" t="s">
@@ -6676,7 +6679,7 @@
         <v>385</v>
       </c>
       <c r="F119" s="3">
-        <f>+F118+E119</f>
+        <f t="shared" si="1"/>
         <v>210025.03999999998</v>
       </c>
       <c r="G119" s="9" t="s">
@@ -6712,7 +6715,7 @@
         <v>385</v>
       </c>
       <c r="F120" s="3">
-        <f>+F119+E120</f>
+        <f t="shared" si="1"/>
         <v>210410.03999999998</v>
       </c>
       <c r="G120" s="2" t="s">
@@ -6746,7 +6749,7 @@
         <v>385</v>
       </c>
       <c r="F121" s="3">
-        <f>+F120+E121</f>
+        <f t="shared" si="1"/>
         <v>210795.03999999998</v>
       </c>
       <c r="G121" s="9" t="s">
@@ -6782,7 +6785,7 @@
         <v>385</v>
       </c>
       <c r="F122" s="3">
-        <f>+F121+E122</f>
+        <f t="shared" si="1"/>
         <v>211180.03999999998</v>
       </c>
       <c r="G122" s="2" t="s">
@@ -6818,7 +6821,7 @@
         <v>100</v>
       </c>
       <c r="F123" s="3">
-        <f>+F122+E123</f>
+        <f t="shared" si="1"/>
         <v>211280.03999999998</v>
       </c>
       <c r="G123" s="9" t="s">
@@ -6854,7 +6857,7 @@
         <v>5400</v>
       </c>
       <c r="F124" s="3">
-        <f>+F123+E124</f>
+        <f t="shared" si="1"/>
         <v>216680.03999999998</v>
       </c>
       <c r="G124" s="2" t="s">
@@ -6890,7 +6893,7 @@
         <v>320</v>
       </c>
       <c r="F125" s="3">
-        <f>+F124+E125</f>
+        <f t="shared" si="1"/>
         <v>217000.03999999998</v>
       </c>
       <c r="G125" s="9" t="s">
@@ -6926,7 +6929,7 @@
         <v>385</v>
       </c>
       <c r="F126" s="3">
-        <f>+F125+E126</f>
+        <f t="shared" si="1"/>
         <v>217385.03999999998</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -6962,7 +6965,7 @@
         <v>320</v>
       </c>
       <c r="F127" s="3">
-        <f>+F126+E127</f>
+        <f t="shared" si="1"/>
         <v>217705.03999999998</v>
       </c>
       <c r="G127" s="9" t="s">
@@ -6998,7 +7001,7 @@
         <v>320</v>
       </c>
       <c r="F128" s="3">
-        <f>+F127+E128</f>
+        <f t="shared" si="1"/>
         <v>218025.03999999998</v>
       </c>
       <c r="G128" s="2" t="s">
@@ -7034,7 +7037,7 @@
         <v>420</v>
       </c>
       <c r="F129" s="3">
-        <f>+F128+E129</f>
+        <f t="shared" si="1"/>
         <v>218445.03999999998</v>
       </c>
       <c r="G129" s="9" t="s">
@@ -7070,7 +7073,7 @@
         <v>385</v>
       </c>
       <c r="F130" s="3">
-        <f>+F129+E130</f>
+        <f t="shared" ref="F130:F193" si="2">+F129+E130</f>
         <v>218830.03999999998</v>
       </c>
       <c r="G130" s="2" t="s">
@@ -7106,7 +7109,7 @@
         <v>385</v>
       </c>
       <c r="F131" s="3">
-        <f>+F130+E131</f>
+        <f t="shared" si="2"/>
         <v>219215.03999999998</v>
       </c>
       <c r="G131" s="9" t="s">
@@ -7142,7 +7145,7 @@
         <v>385</v>
       </c>
       <c r="F132" s="3">
-        <f>+F131+E132</f>
+        <f t="shared" si="2"/>
         <v>219600.03999999998</v>
       </c>
       <c r="G132" s="2" t="s">
@@ -7178,7 +7181,7 @@
         <v>385</v>
       </c>
       <c r="F133" s="3">
-        <f>+F132+E133</f>
+        <f t="shared" si="2"/>
         <v>219985.03999999998</v>
       </c>
       <c r="G133" s="9" t="s">
@@ -7214,7 +7217,7 @@
         <v>385</v>
       </c>
       <c r="F134" s="3">
-        <f>+F133+E134</f>
+        <f t="shared" si="2"/>
         <v>220370.03999999998</v>
       </c>
       <c r="G134" s="2" t="s">
@@ -7250,7 +7253,7 @@
         <v>4400</v>
       </c>
       <c r="F135" s="3">
-        <f>+F134+E135</f>
+        <f t="shared" si="2"/>
         <v>224770.03999999998</v>
       </c>
       <c r="G135" s="9" t="s">
@@ -7286,7 +7289,7 @@
         <v>350</v>
       </c>
       <c r="F136" s="3">
-        <f>+F135+E136</f>
+        <f t="shared" si="2"/>
         <v>225120.03999999998</v>
       </c>
       <c r="G136" s="2" t="s">
@@ -7322,7 +7325,7 @@
         <v>350</v>
       </c>
       <c r="F137" s="3">
-        <f>+F136+E137</f>
+        <f t="shared" si="2"/>
         <v>225470.03999999998</v>
       </c>
       <c r="G137" s="9" t="s">
@@ -7358,7 +7361,7 @@
         <v>385</v>
       </c>
       <c r="F138" s="3">
-        <f>+F137+E138</f>
+        <f t="shared" si="2"/>
         <v>225855.03999999998</v>
       </c>
       <c r="G138" s="2" t="s">
@@ -7394,7 +7397,7 @@
         <v>385</v>
       </c>
       <c r="F139" s="3">
-        <f>+F138+E139</f>
+        <f t="shared" si="2"/>
         <v>226240.03999999998</v>
       </c>
       <c r="G139" s="9" t="s">
@@ -7430,7 +7433,7 @@
         <v>320</v>
       </c>
       <c r="F140" s="3">
-        <f>+F139+E140</f>
+        <f t="shared" si="2"/>
         <v>226560.03999999998</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -7466,7 +7469,7 @@
         <v>840</v>
       </c>
       <c r="F141" s="3">
-        <f>+F140+E141</f>
+        <f t="shared" si="2"/>
         <v>227400.03999999998</v>
       </c>
       <c r="G141" s="9" t="s">
@@ -7502,7 +7505,7 @@
         <v>320</v>
       </c>
       <c r="F142" s="3">
-        <f>+F141+E142</f>
+        <f t="shared" si="2"/>
         <v>227720.03999999998</v>
       </c>
       <c r="G142" s="2" t="s">
@@ -7538,7 +7541,7 @@
         <v>350</v>
       </c>
       <c r="F143" s="3">
-        <f>+F142+E143</f>
+        <f t="shared" si="2"/>
         <v>228070.03999999998</v>
       </c>
       <c r="G143" s="9" t="s">
@@ -7574,7 +7577,7 @@
         <v>280</v>
       </c>
       <c r="F144" s="3">
-        <f>+F143+E144</f>
+        <f t="shared" si="2"/>
         <v>228350.03999999998</v>
       </c>
       <c r="G144" s="2" t="s">
@@ -7610,7 +7613,7 @@
         <v>385</v>
       </c>
       <c r="F145" s="3">
-        <f>+F144+E145</f>
+        <f t="shared" si="2"/>
         <v>228735.03999999998</v>
       </c>
       <c r="G145" s="9" t="s">
@@ -7646,7 +7649,7 @@
         <v>385</v>
       </c>
       <c r="F146" s="3">
-        <f>+F145+E146</f>
+        <f t="shared" si="2"/>
         <v>229120.03999999998</v>
       </c>
       <c r="G146" s="2" t="s">
@@ -7682,7 +7685,7 @@
         <v>820</v>
       </c>
       <c r="F147" s="3">
-        <f>+F146+E147</f>
+        <f t="shared" si="2"/>
         <v>229940.03999999998</v>
       </c>
       <c r="G147" s="9" t="s">
@@ -7718,7 +7721,7 @@
         <v>637</v>
       </c>
       <c r="F148" s="3">
-        <f>+F147+E148</f>
+        <f t="shared" si="2"/>
         <v>230577.03999999998</v>
       </c>
       <c r="G148" s="2" t="s">
@@ -7754,7 +7757,7 @@
         <v>595</v>
       </c>
       <c r="F149" s="3">
-        <f>+F148+E149</f>
+        <f t="shared" si="2"/>
         <v>231172.03999999998</v>
       </c>
       <c r="G149" s="9" t="s">
@@ -7790,7 +7793,7 @@
         <v>600</v>
       </c>
       <c r="F150" s="3">
-        <f>+F149+E150</f>
+        <f t="shared" si="2"/>
         <v>231772.03999999998</v>
       </c>
       <c r="G150" s="2" t="s">
@@ -7826,7 +7829,7 @@
         <v>320</v>
       </c>
       <c r="F151" s="3">
-        <f>+F150+E151</f>
+        <f t="shared" si="2"/>
         <v>232092.03999999998</v>
       </c>
       <c r="G151" s="9" t="s">
@@ -7862,7 +7865,7 @@
         <v>100</v>
       </c>
       <c r="F152" s="3">
-        <f>+F151+E152</f>
+        <f t="shared" si="2"/>
         <v>232192.03999999998</v>
       </c>
       <c r="G152" s="2" t="s">
@@ -7898,7 +7901,7 @@
         <v>320</v>
       </c>
       <c r="F153" s="3">
-        <f>+F152+E153</f>
+        <f t="shared" si="2"/>
         <v>232512.03999999998</v>
       </c>
       <c r="G153" s="9" t="s">
@@ -7934,7 +7937,7 @@
         <v>640.57000000000005</v>
       </c>
       <c r="F154" s="3">
-        <f>+F153+E154</f>
+        <f t="shared" si="2"/>
         <v>233152.61</v>
       </c>
       <c r="G154" s="2" t="s">
@@ -7970,7 +7973,7 @@
         <v>280</v>
       </c>
       <c r="F155" s="3">
-        <f>+F154+E155</f>
+        <f t="shared" si="2"/>
         <v>233432.61</v>
       </c>
       <c r="G155" s="9" t="s">
@@ -8006,7 +8009,7 @@
         <v>385</v>
       </c>
       <c r="F156" s="3">
-        <f>+F155+E156</f>
+        <f t="shared" si="2"/>
         <v>233817.61</v>
       </c>
       <c r="G156" s="2" t="s">
@@ -8042,7 +8045,7 @@
         <v>360</v>
       </c>
       <c r="F157" s="3">
-        <f>+F156+E157</f>
+        <f t="shared" si="2"/>
         <v>234177.61</v>
       </c>
       <c r="G157" s="9" t="s">
@@ -8078,7 +8081,7 @@
         <v>320</v>
       </c>
       <c r="F158" s="3">
-        <f>+F157+E158</f>
+        <f t="shared" si="2"/>
         <v>234497.61</v>
       </c>
       <c r="G158" s="2" t="s">
@@ -8114,7 +8117,7 @@
         <v>280</v>
       </c>
       <c r="F159" s="3">
-        <f>+F158+E159</f>
+        <f t="shared" si="2"/>
         <v>234777.61</v>
       </c>
       <c r="G159" s="9" t="s">
@@ -8150,7 +8153,7 @@
         <v>2520</v>
       </c>
       <c r="F160" s="3">
-        <f>+F159+E160</f>
+        <f t="shared" si="2"/>
         <v>237297.61</v>
       </c>
       <c r="G160" s="2" t="s">
@@ -8186,7 +8189,7 @@
         <v>100</v>
       </c>
       <c r="F161" s="3">
-        <f>+F160+E161</f>
+        <f t="shared" si="2"/>
         <v>237397.61</v>
       </c>
       <c r="G161" s="9" t="s">
@@ -8222,7 +8225,7 @@
         <v>960</v>
       </c>
       <c r="F162" s="3">
-        <f>+F161+E162</f>
+        <f t="shared" si="2"/>
         <v>238357.61</v>
       </c>
       <c r="G162" s="2" t="s">
@@ -8258,7 +8261,7 @@
         <v>770</v>
       </c>
       <c r="F163" s="3">
-        <f>+F162+E163</f>
+        <f t="shared" si="2"/>
         <v>239127.61</v>
       </c>
       <c r="G163" s="9" t="s">
@@ -8294,7 +8297,7 @@
         <v>720</v>
       </c>
       <c r="F164" s="3">
-        <f>+F163+E164</f>
+        <f t="shared" si="2"/>
         <v>239847.61</v>
       </c>
       <c r="G164" s="2" t="s">
@@ -8330,7 +8333,7 @@
         <v>385</v>
       </c>
       <c r="F165" s="3">
-        <f>+F164+E165</f>
+        <f t="shared" si="2"/>
         <v>240232.61</v>
       </c>
       <c r="G165" s="9" t="s">
@@ -8366,7 +8369,7 @@
         <v>595</v>
       </c>
       <c r="F166" s="3">
-        <f>+F165+E166</f>
+        <f t="shared" si="2"/>
         <v>240827.61</v>
       </c>
       <c r="G166" s="2" t="s">
@@ -8402,7 +8405,7 @@
         <v>320</v>
       </c>
       <c r="F167" s="3">
-        <f>+F166+E167</f>
+        <f t="shared" si="2"/>
         <v>241147.61</v>
       </c>
       <c r="G167" s="9" t="s">
@@ -8438,7 +8441,7 @@
         <v>320</v>
       </c>
       <c r="F168" s="3">
-        <f>+F167+E168</f>
+        <f t="shared" si="2"/>
         <v>241467.61</v>
       </c>
       <c r="G168" s="2" t="s">
@@ -8474,7 +8477,7 @@
         <v>320</v>
       </c>
       <c r="F169" s="3">
-        <f>+F168+E169</f>
+        <f t="shared" si="2"/>
         <v>241787.61</v>
       </c>
       <c r="G169" s="9" t="s">
@@ -8510,7 +8513,7 @@
         <v>320</v>
       </c>
       <c r="F170" s="3">
-        <f>+F169+E170</f>
+        <f t="shared" si="2"/>
         <v>242107.61</v>
       </c>
       <c r="G170" s="2" t="s">
@@ -8546,7 +8549,7 @@
         <v>100</v>
       </c>
       <c r="F171" s="3">
-        <f>+F170+E171</f>
+        <f t="shared" si="2"/>
         <v>242207.61</v>
       </c>
       <c r="G171" s="9" t="s">
@@ -8582,7 +8585,7 @@
         <v>320</v>
       </c>
       <c r="F172" s="3">
-        <f>+F171+E172</f>
+        <f t="shared" si="2"/>
         <v>242527.61</v>
       </c>
       <c r="G172" s="2" t="s">
@@ -8618,7 +8621,7 @@
         <v>100</v>
       </c>
       <c r="F173" s="3">
-        <f>+F172+E173</f>
+        <f t="shared" si="2"/>
         <v>242627.61</v>
       </c>
       <c r="G173" s="9" t="s">
@@ -8654,7 +8657,7 @@
         <v>350</v>
       </c>
       <c r="F174" s="3">
-        <f>+F173+E174</f>
+        <f t="shared" si="2"/>
         <v>242977.61</v>
       </c>
       <c r="G174" s="2" t="s">
@@ -8690,7 +8693,7 @@
         <v>280</v>
       </c>
       <c r="F175" s="3">
-        <f>+F174+E175</f>
+        <f t="shared" si="2"/>
         <v>243257.61</v>
       </c>
       <c r="G175" s="9" t="s">
@@ -8726,7 +8729,7 @@
         <v>320</v>
       </c>
       <c r="F176" s="3">
-        <f>+F175+E176</f>
+        <f t="shared" si="2"/>
         <v>243577.61</v>
       </c>
       <c r="G176" s="2" t="s">
@@ -8762,7 +8765,7 @@
         <v>385</v>
       </c>
       <c r="F177" s="3">
-        <f>+F176+E177</f>
+        <f t="shared" si="2"/>
         <v>243962.61</v>
       </c>
       <c r="G177" s="9" t="s">
@@ -8798,7 +8801,7 @@
         <v>320</v>
       </c>
       <c r="F178" s="3">
-        <f>+F177+E178</f>
+        <f t="shared" si="2"/>
         <v>244282.61</v>
       </c>
       <c r="G178" s="2" t="s">
@@ -8834,7 +8837,7 @@
         <v>100</v>
       </c>
       <c r="F179" s="3">
-        <f>+F178+E179</f>
+        <f t="shared" si="2"/>
         <v>244382.61</v>
       </c>
       <c r="G179" s="9" t="s">
@@ -8870,7 +8873,7 @@
         <v>320</v>
       </c>
       <c r="F180" s="3">
-        <f>+F179+E180</f>
+        <f t="shared" si="2"/>
         <v>244702.61</v>
       </c>
       <c r="G180" s="2" t="s">
@@ -8906,7 +8909,7 @@
         <v>360</v>
       </c>
       <c r="F181" s="3">
-        <f>+F180+E181</f>
+        <f t="shared" si="2"/>
         <v>245062.61</v>
       </c>
       <c r="G181" s="9" t="s">
@@ -8942,7 +8945,7 @@
         <v>350</v>
       </c>
       <c r="F182" s="3">
-        <f>+F181+E182</f>
+        <f t="shared" si="2"/>
         <v>245412.61</v>
       </c>
       <c r="G182" s="2" t="s">
@@ -8978,7 +8981,7 @@
         <v>350</v>
       </c>
       <c r="F183" s="3">
-        <f>+F182+E183</f>
+        <f t="shared" si="2"/>
         <v>245762.61</v>
       </c>
       <c r="G183" s="9" t="s">
@@ -9014,7 +9017,7 @@
         <v>350</v>
       </c>
       <c r="F184" s="3">
-        <f>+F183+E184</f>
+        <f t="shared" si="2"/>
         <v>246112.61</v>
       </c>
       <c r="G184" s="2" t="s">
@@ -9050,7 +9053,7 @@
         <v>422.17</v>
       </c>
       <c r="F185" s="3">
-        <f>+F184+E185</f>
+        <f t="shared" si="2"/>
         <v>246534.78</v>
       </c>
       <c r="G185" s="9" t="s">
@@ -9086,7 +9089,7 @@
         <v>100</v>
       </c>
       <c r="F186" s="3">
-        <f>+F185+E186</f>
+        <f t="shared" si="2"/>
         <v>246634.78</v>
       </c>
       <c r="G186" s="2" t="s">
@@ -9122,7 +9125,7 @@
         <v>350</v>
       </c>
       <c r="F187" s="3">
-        <f>+F186+E187</f>
+        <f t="shared" si="2"/>
         <v>246984.78</v>
       </c>
       <c r="G187" s="9" t="s">
@@ -9158,7 +9161,7 @@
         <v>350</v>
       </c>
       <c r="F188" s="3">
-        <f>+F187+E188</f>
+        <f t="shared" si="2"/>
         <v>247334.78</v>
       </c>
       <c r="G188" s="2" t="s">
@@ -9194,7 +9197,7 @@
         <v>350</v>
       </c>
       <c r="F189" s="3">
-        <f>+F188+E189</f>
+        <f t="shared" si="2"/>
         <v>247684.78</v>
       </c>
       <c r="G189" s="9" t="s">
@@ -9230,7 +9233,7 @@
         <v>350</v>
       </c>
       <c r="F190" s="3">
-        <f>+F189+E190</f>
+        <f t="shared" si="2"/>
         <v>248034.78</v>
       </c>
       <c r="G190" s="2" t="s">
@@ -9266,7 +9269,7 @@
         <v>350</v>
       </c>
       <c r="F191" s="3">
-        <f>+F190+E191</f>
+        <f t="shared" si="2"/>
         <v>248384.78</v>
       </c>
       <c r="G191" s="9" t="s">
@@ -9302,7 +9305,7 @@
         <v>350</v>
       </c>
       <c r="F192" s="3">
-        <f>+F191+E192</f>
+        <f t="shared" si="2"/>
         <v>248734.78</v>
       </c>
       <c r="G192" s="2" t="s">
@@ -9338,7 +9341,7 @@
         <v>350</v>
       </c>
       <c r="F193" s="3">
-        <f>+F192+E193</f>
+        <f t="shared" si="2"/>
         <v>249084.78</v>
       </c>
       <c r="G193" s="9" t="s">
@@ -9374,7 +9377,7 @@
         <v>350</v>
       </c>
       <c r="F194" s="3">
-        <f>+F193+E194</f>
+        <f t="shared" ref="F194:F257" si="3">+F193+E194</f>
         <v>249434.78</v>
       </c>
       <c r="G194" s="2" t="s">
@@ -9410,7 +9413,7 @@
         <v>320</v>
       </c>
       <c r="F195" s="3">
-        <f>+F194+E195</f>
+        <f t="shared" si="3"/>
         <v>249754.78</v>
       </c>
       <c r="G195" s="9" t="s">
@@ -9446,7 +9449,7 @@
         <v>350</v>
       </c>
       <c r="F196" s="3">
-        <f>+F195+E196</f>
+        <f t="shared" si="3"/>
         <v>250104.78</v>
       </c>
       <c r="G196" s="2" t="s">
@@ -9482,7 +9485,7 @@
         <v>350</v>
       </c>
       <c r="F197" s="3">
-        <f>+F196+E197</f>
+        <f t="shared" si="3"/>
         <v>250454.78</v>
       </c>
       <c r="G197" s="9" t="s">
@@ -9518,7 +9521,7 @@
         <v>320</v>
       </c>
       <c r="F198" s="3">
-        <f>+F197+E198</f>
+        <f t="shared" si="3"/>
         <v>250774.78</v>
       </c>
       <c r="G198" s="2" t="s">
@@ -9554,7 +9557,7 @@
         <v>320</v>
       </c>
       <c r="F199" s="3">
-        <f>+F198+E199</f>
+        <f t="shared" si="3"/>
         <v>251094.78</v>
       </c>
       <c r="G199" s="9" t="s">
@@ -9590,7 +9593,7 @@
         <v>350</v>
       </c>
       <c r="F200" s="3">
-        <f>+F199+E200</f>
+        <f t="shared" si="3"/>
         <v>251444.78</v>
       </c>
       <c r="G200" s="2" t="s">
@@ -9626,7 +9629,7 @@
         <v>320</v>
       </c>
       <c r="F201" s="3">
-        <f>+F200+E201</f>
+        <f t="shared" si="3"/>
         <v>251764.78</v>
       </c>
       <c r="G201" s="9" t="s">
@@ -9662,7 +9665,7 @@
         <v>350</v>
       </c>
       <c r="F202" s="3">
-        <f>+F201+E202</f>
+        <f t="shared" si="3"/>
         <v>252114.78</v>
       </c>
       <c r="G202" s="2" t="s">
@@ -9698,7 +9701,7 @@
         <v>350</v>
       </c>
       <c r="F203" s="3">
-        <f>+F202+E203</f>
+        <f t="shared" si="3"/>
         <v>252464.78</v>
       </c>
       <c r="G203" s="9" t="s">
@@ -9734,7 +9737,7 @@
         <v>350</v>
       </c>
       <c r="F204" s="3">
-        <f>+F203+E204</f>
+        <f t="shared" si="3"/>
         <v>252814.78</v>
       </c>
       <c r="G204" s="2" t="s">
@@ -9770,7 +9773,7 @@
         <v>350</v>
       </c>
       <c r="F205" s="3">
-        <f>+F204+E205</f>
+        <f t="shared" si="3"/>
         <v>253164.78</v>
       </c>
       <c r="G205" s="9" t="s">
@@ -9806,7 +9809,7 @@
         <v>350</v>
       </c>
       <c r="F206" s="3">
-        <f>+F205+E206</f>
+        <f t="shared" si="3"/>
         <v>253514.78</v>
       </c>
       <c r="G206" s="2" t="s">
@@ -9842,7 +9845,7 @@
         <v>700</v>
       </c>
       <c r="F207" s="3">
-        <f>+F206+E207</f>
+        <f t="shared" si="3"/>
         <v>254214.78</v>
       </c>
       <c r="G207" s="9" t="s">
@@ -9878,7 +9881,7 @@
         <v>350</v>
       </c>
       <c r="F208" s="3">
-        <f>+F207+E208</f>
+        <f t="shared" si="3"/>
         <v>254564.78</v>
       </c>
       <c r="G208" s="2" t="s">
@@ -9914,7 +9917,7 @@
         <v>100</v>
       </c>
       <c r="F209" s="3">
-        <f>+F208+E209</f>
+        <f t="shared" si="3"/>
         <v>254664.78</v>
       </c>
       <c r="G209" s="9" t="s">
@@ -9950,7 +9953,7 @@
         <v>692.25</v>
       </c>
       <c r="F210" s="3">
-        <f>+F209+E210</f>
+        <f t="shared" si="3"/>
         <v>255357.03</v>
       </c>
       <c r="G210" s="2" t="s">
@@ -9986,7 +9989,7 @@
         <v>350</v>
       </c>
       <c r="F211" s="3">
-        <f>+F210+E211</f>
+        <f t="shared" si="3"/>
         <v>255707.03</v>
       </c>
       <c r="G211" s="9" t="s">
@@ -10022,7 +10025,7 @@
         <v>385</v>
       </c>
       <c r="F212" s="3">
-        <f>+F211+E212</f>
+        <f t="shared" si="3"/>
         <v>256092.03</v>
       </c>
       <c r="G212" s="2" t="s">
@@ -10058,7 +10061,7 @@
         <v>350</v>
       </c>
       <c r="F213" s="3">
-        <f>+F212+E213</f>
+        <f t="shared" si="3"/>
         <v>256442.03</v>
       </c>
       <c r="G213" s="9" t="s">
@@ -10094,7 +10097,7 @@
         <v>320</v>
       </c>
       <c r="F214" s="3">
-        <f>+F213+E214</f>
+        <f t="shared" si="3"/>
         <v>256762.03</v>
       </c>
       <c r="G214" s="2" t="s">
@@ -10130,7 +10133,7 @@
         <v>350</v>
       </c>
       <c r="F215" s="3">
-        <f>+F214+E215</f>
+        <f t="shared" si="3"/>
         <v>257112.03</v>
       </c>
       <c r="G215" s="9" t="s">
@@ -10166,7 +10169,7 @@
         <v>350</v>
       </c>
       <c r="F216" s="3">
-        <f>+F215+E216</f>
+        <f t="shared" si="3"/>
         <v>257462.03</v>
       </c>
       <c r="G216" s="2" t="s">
@@ -10202,7 +10205,7 @@
         <v>350</v>
       </c>
       <c r="F217" s="3">
-        <f>+F216+E217</f>
+        <f t="shared" si="3"/>
         <v>257812.03</v>
       </c>
       <c r="G217" s="9" t="s">
@@ -10238,7 +10241,7 @@
         <v>320</v>
       </c>
       <c r="F218" s="3">
-        <f>+F217+E218</f>
+        <f t="shared" si="3"/>
         <v>258132.03</v>
       </c>
       <c r="G218" s="2" t="s">
@@ -10274,7 +10277,7 @@
         <v>350</v>
       </c>
       <c r="F219" s="3">
-        <f>+F218+E219</f>
+        <f t="shared" si="3"/>
         <v>258482.03</v>
       </c>
       <c r="G219" s="9" t="s">
@@ -10310,7 +10313,7 @@
         <v>350</v>
       </c>
       <c r="F220" s="3">
-        <f>+F219+E220</f>
+        <f t="shared" si="3"/>
         <v>258832.03</v>
       </c>
       <c r="G220" s="2" t="s">
@@ -10346,7 +10349,7 @@
         <v>640</v>
       </c>
       <c r="F221" s="3">
-        <f>+F220+E221</f>
+        <f t="shared" si="3"/>
         <v>259472.03</v>
       </c>
       <c r="G221" s="9" t="s">
@@ -10382,7 +10385,7 @@
         <v>420</v>
       </c>
       <c r="F222" s="3">
-        <f>+F221+E222</f>
+        <f t="shared" si="3"/>
         <v>259892.03</v>
       </c>
       <c r="G222" s="2" t="s">
@@ -10418,7 +10421,7 @@
         <v>2520</v>
       </c>
       <c r="F223" s="3">
-        <f>+F222+E223</f>
+        <f t="shared" si="3"/>
         <v>262412.03000000003</v>
       </c>
       <c r="G223" s="9" t="s">
@@ -10454,7 +10457,7 @@
         <v>350</v>
       </c>
       <c r="F224" s="3">
-        <f>+F223+E224</f>
+        <f t="shared" si="3"/>
         <v>262762.03000000003</v>
       </c>
       <c r="G224" s="2" t="s">
@@ -10490,7 +10493,7 @@
         <v>1420</v>
       </c>
       <c r="F225" s="3">
-        <f>+F224+E225</f>
+        <f t="shared" si="3"/>
         <v>264182.03000000003</v>
       </c>
       <c r="G225" s="9" t="s">
@@ -10526,7 +10529,7 @@
         <v>320</v>
       </c>
       <c r="F226" s="3">
-        <f>+F225+E226</f>
+        <f t="shared" si="3"/>
         <v>264502.03000000003</v>
       </c>
       <c r="G226" s="2" t="s">
@@ -10562,7 +10565,7 @@
         <v>350</v>
       </c>
       <c r="F227" s="3">
-        <f>+F226+E227</f>
+        <f t="shared" si="3"/>
         <v>264852.03000000003</v>
       </c>
       <c r="G227" s="9" t="s">
@@ -10598,7 +10601,7 @@
         <v>385</v>
       </c>
       <c r="F228" s="3">
-        <f>+F227+E228</f>
+        <f t="shared" si="3"/>
         <v>265237.03000000003</v>
       </c>
       <c r="G228" s="2" t="s">
@@ -10634,7 +10637,7 @@
         <v>320</v>
       </c>
       <c r="F229" s="3">
-        <f>+F228+E229</f>
+        <f t="shared" si="3"/>
         <v>265557.03000000003</v>
       </c>
       <c r="G229" s="9" t="s">
@@ -10670,7 +10673,7 @@
         <v>350</v>
       </c>
       <c r="F230" s="3">
-        <f>+F229+E230</f>
+        <f t="shared" si="3"/>
         <v>265907.03000000003</v>
       </c>
       <c r="G230" s="2" t="s">
@@ -10706,7 +10709,7 @@
         <v>350</v>
       </c>
       <c r="F231" s="3">
-        <f>+F230+E231</f>
+        <f t="shared" si="3"/>
         <v>266257.03000000003</v>
       </c>
       <c r="G231" s="9" t="s">
@@ -10742,7 +10745,7 @@
         <v>350</v>
       </c>
       <c r="F232" s="3">
-        <f>+F231+E232</f>
+        <f t="shared" si="3"/>
         <v>266607.03000000003</v>
       </c>
       <c r="G232" s="2" t="s">
@@ -10778,7 +10781,7 @@
         <v>350</v>
       </c>
       <c r="F233" s="3">
-        <f>+F232+E233</f>
+        <f t="shared" si="3"/>
         <v>266957.03000000003</v>
       </c>
       <c r="G233" s="9" t="s">
@@ -10814,7 +10817,7 @@
         <v>320</v>
       </c>
       <c r="F234" s="3">
-        <f>+F233+E234</f>
+        <f t="shared" si="3"/>
         <v>267277.03000000003</v>
       </c>
       <c r="G234" s="2" t="s">
@@ -10850,7 +10853,7 @@
         <v>385</v>
       </c>
       <c r="F235" s="3">
-        <f>+F234+E235</f>
+        <f t="shared" si="3"/>
         <v>267662.03000000003</v>
       </c>
       <c r="G235" s="9" t="s">
@@ -10886,7 +10889,7 @@
         <v>385</v>
       </c>
       <c r="F236" s="3">
-        <f>+F235+E236</f>
+        <f t="shared" si="3"/>
         <v>268047.03000000003</v>
       </c>
       <c r="G236" s="2" t="s">
@@ -10922,7 +10925,7 @@
         <v>3600</v>
       </c>
       <c r="F237" s="3">
-        <f>+F236+E237</f>
+        <f t="shared" si="3"/>
         <v>271647.03000000003</v>
       </c>
       <c r="G237" s="9" t="s">
@@ -10958,7 +10961,7 @@
         <v>320</v>
       </c>
       <c r="F238" s="3">
-        <f>+F237+E238</f>
+        <f t="shared" si="3"/>
         <v>271967.03000000003</v>
       </c>
       <c r="G238" s="2" t="s">
@@ -10994,7 +10997,7 @@
         <v>350</v>
       </c>
       <c r="F239" s="3">
-        <f>+F238+E239</f>
+        <f t="shared" si="3"/>
         <v>272317.03000000003</v>
       </c>
       <c r="G239" s="9" t="s">
@@ -11030,7 +11033,7 @@
         <v>320</v>
       </c>
       <c r="F240" s="3">
-        <f>+F239+E240</f>
+        <f t="shared" si="3"/>
         <v>272637.03000000003</v>
       </c>
       <c r="G240" s="2" t="s">
@@ -11066,7 +11069,7 @@
         <v>420</v>
       </c>
       <c r="F241" s="3">
-        <f>+F240+E241</f>
+        <f t="shared" si="3"/>
         <v>273057.03000000003</v>
       </c>
       <c r="G241" s="9" t="s">
@@ -11102,7 +11105,7 @@
         <v>350</v>
       </c>
       <c r="F242" s="3">
-        <f>+F241+E242</f>
+        <f t="shared" si="3"/>
         <v>273407.03000000003</v>
       </c>
       <c r="G242" s="2" t="s">
@@ -11138,7 +11141,7 @@
         <v>1062.75</v>
       </c>
       <c r="F243" s="3">
-        <f>+F242+E243</f>
+        <f t="shared" si="3"/>
         <v>274469.78000000003</v>
       </c>
       <c r="G243" s="9" t="s">
@@ -11174,7 +11177,7 @@
         <v>385</v>
       </c>
       <c r="F244" s="3">
-        <f>+F243+E244</f>
+        <f t="shared" si="3"/>
         <v>274854.78000000003</v>
       </c>
       <c r="G244" s="2" t="s">
@@ -11210,7 +11213,7 @@
         <v>100</v>
       </c>
       <c r="F245" s="3">
-        <f>+F244+E245</f>
+        <f t="shared" si="3"/>
         <v>274954.78000000003</v>
       </c>
       <c r="G245" s="9" t="s">
@@ -11246,7 +11249,7 @@
         <v>280</v>
       </c>
       <c r="F246" s="3">
-        <f>+F245+E246</f>
+        <f t="shared" si="3"/>
         <v>275234.78000000003</v>
       </c>
       <c r="G246" s="2" t="s">
@@ -11282,7 +11285,7 @@
         <v>360</v>
       </c>
       <c r="F247" s="3">
-        <f>+F246+E247</f>
+        <f t="shared" si="3"/>
         <v>275594.78000000003</v>
       </c>
       <c r="G247" s="9" t="s">
@@ -11318,7 +11321,7 @@
         <v>100</v>
       </c>
       <c r="F248" s="3">
-        <f>+F247+E248</f>
+        <f t="shared" si="3"/>
         <v>275694.78000000003</v>
       </c>
       <c r="G248" s="2" t="s">
@@ -11354,7 +11357,7 @@
         <v>100</v>
       </c>
       <c r="F249" s="3">
-        <f>+F248+E249</f>
+        <f t="shared" si="3"/>
         <v>275794.78000000003</v>
       </c>
       <c r="G249" s="9" t="s">
@@ -11390,7 +11393,7 @@
         <v>350</v>
       </c>
       <c r="F250" s="3">
-        <f>+F249+E250</f>
+        <f t="shared" si="3"/>
         <v>276144.78000000003</v>
       </c>
       <c r="G250" s="2" t="s">
@@ -11426,7 +11429,7 @@
         <v>350</v>
       </c>
       <c r="F251" s="3">
-        <f>+F250+E251</f>
+        <f t="shared" si="3"/>
         <v>276494.78000000003</v>
       </c>
       <c r="G251" s="9" t="s">
@@ -11462,7 +11465,7 @@
         <v>280</v>
       </c>
       <c r="F252" s="3">
-        <f>+F251+E252</f>
+        <f t="shared" si="3"/>
         <v>276774.78000000003</v>
       </c>
       <c r="G252" s="2" t="s">
@@ -11498,7 +11501,7 @@
         <v>320</v>
       </c>
       <c r="F253" s="3">
-        <f>+F252+E253</f>
+        <f t="shared" si="3"/>
         <v>277094.78000000003</v>
       </c>
       <c r="G253" s="9" t="s">
@@ -11534,7 +11537,7 @@
         <v>350</v>
       </c>
       <c r="F254" s="3">
-        <f>+F253+E254</f>
+        <f t="shared" si="3"/>
         <v>277444.78000000003</v>
       </c>
       <c r="G254" s="2" t="s">
@@ -11570,7 +11573,7 @@
         <v>350</v>
       </c>
       <c r="F255" s="3">
-        <f>+F254+E255</f>
+        <f t="shared" si="3"/>
         <v>277794.78000000003</v>
       </c>
       <c r="G255" s="9" t="s">
@@ -11606,7 +11609,7 @@
         <v>350</v>
       </c>
       <c r="F256" s="3">
-        <f>+F255+E256</f>
+        <f t="shared" si="3"/>
         <v>278144.78000000003</v>
       </c>
       <c r="G256" s="2" t="s">
@@ -11642,7 +11645,7 @@
         <v>880</v>
       </c>
       <c r="F257" s="3">
-        <f>+F256+E257</f>
+        <f t="shared" si="3"/>
         <v>279024.78000000003</v>
       </c>
       <c r="G257" s="9" t="s">
@@ -11678,7 +11681,7 @@
         <v>350</v>
       </c>
       <c r="F258" s="3">
-        <f>+F257+E258</f>
+        <f t="shared" ref="F258:F321" si="4">+F257+E258</f>
         <v>279374.78000000003</v>
       </c>
       <c r="G258" s="2" t="s">
@@ -11714,7 +11717,7 @@
         <v>385</v>
       </c>
       <c r="F259" s="3">
-        <f>+F258+E259</f>
+        <f t="shared" si="4"/>
         <v>279759.78000000003</v>
       </c>
       <c r="G259" s="9" t="s">
@@ -11750,7 +11753,7 @@
         <v>320</v>
       </c>
       <c r="F260" s="3">
-        <f>+F259+E260</f>
+        <f t="shared" si="4"/>
         <v>280079.78000000003</v>
       </c>
       <c r="G260" s="2" t="s">
@@ -11786,7 +11789,7 @@
         <v>385</v>
       </c>
       <c r="F261" s="3">
-        <f>+F260+E261</f>
+        <f t="shared" si="4"/>
         <v>280464.78000000003</v>
       </c>
       <c r="G261" s="9" t="s">
@@ -11822,7 +11825,7 @@
         <v>12886</v>
       </c>
       <c r="F262" s="3">
-        <f>+F261+E262</f>
+        <f t="shared" si="4"/>
         <v>293350.78000000003</v>
       </c>
       <c r="G262" s="2" t="s">
@@ -11858,7 +11861,7 @@
         <v>320</v>
       </c>
       <c r="F263" s="3">
-        <f>+F262+E263</f>
+        <f t="shared" si="4"/>
         <v>293670.78000000003</v>
       </c>
       <c r="G263" s="9" t="s">
@@ -11892,7 +11895,7 @@
         <v>385</v>
       </c>
       <c r="F264" s="3">
-        <f>+F263+E264</f>
+        <f t="shared" si="4"/>
         <v>294055.78000000003</v>
       </c>
       <c r="G264" s="2" t="s">
@@ -11928,7 +11931,7 @@
         <v>500</v>
       </c>
       <c r="F265" s="3">
-        <f>+F264+E265</f>
+        <f t="shared" si="4"/>
         <v>294555.78000000003</v>
       </c>
       <c r="G265" s="9" t="s">
@@ -11964,7 +11967,7 @@
         <v>2520</v>
       </c>
       <c r="F266" s="3">
-        <f>+F265+E266</f>
+        <f t="shared" si="4"/>
         <v>297075.78000000003</v>
       </c>
       <c r="G266" s="2" t="s">
@@ -12000,7 +12003,7 @@
         <v>600</v>
       </c>
       <c r="F267" s="3">
-        <f>+F266+E267</f>
+        <f t="shared" si="4"/>
         <v>297675.78000000003</v>
       </c>
       <c r="G267" s="9" t="s">
@@ -12036,7 +12039,7 @@
         <v>5040</v>
       </c>
       <c r="F268" s="3">
-        <f>+F267+E268</f>
+        <f t="shared" si="4"/>
         <v>302715.78000000003</v>
       </c>
       <c r="G268" s="2" t="s">
@@ -12072,7 +12075,7 @@
         <v>320</v>
       </c>
       <c r="F269" s="3">
-        <f>+F268+E269</f>
+        <f t="shared" si="4"/>
         <v>303035.78000000003</v>
       </c>
       <c r="G269" s="9" t="s">
@@ -12108,7 +12111,7 @@
         <v>320</v>
       </c>
       <c r="F270" s="3">
-        <f>+F269+E270</f>
+        <f t="shared" si="4"/>
         <v>303355.78000000003</v>
       </c>
       <c r="G270" s="2" t="s">
@@ -12144,7 +12147,7 @@
         <v>320</v>
       </c>
       <c r="F271" s="3">
-        <f>+F270+E271</f>
+        <f t="shared" si="4"/>
         <v>303675.78000000003</v>
       </c>
       <c r="G271" s="9" t="s">
@@ -12180,7 +12183,7 @@
         <v>320</v>
       </c>
       <c r="F272" s="3">
-        <f>+F271+E272</f>
+        <f t="shared" si="4"/>
         <v>303995.78000000003</v>
       </c>
       <c r="G272" s="2" t="s">
@@ -12216,7 +12219,7 @@
         <v>1920</v>
       </c>
       <c r="F273" s="3">
-        <f>+F272+E273</f>
+        <f t="shared" si="4"/>
         <v>305915.78000000003</v>
       </c>
       <c r="G273" s="9" t="s">
@@ -12252,7 +12255,7 @@
         <v>600</v>
       </c>
       <c r="F274" s="3">
-        <f>+F273+E274</f>
+        <f t="shared" si="4"/>
         <v>306515.78000000003</v>
       </c>
       <c r="G274" s="2" t="s">
@@ -12288,7 +12291,7 @@
         <v>2520</v>
       </c>
       <c r="F275" s="3">
-        <f>+F274+E275</f>
+        <f t="shared" si="4"/>
         <v>309035.78000000003</v>
       </c>
       <c r="G275" s="9" t="s">
@@ -12324,7 +12327,7 @@
         <v>350</v>
       </c>
       <c r="F276" s="3">
-        <f>+F275+E276</f>
+        <f t="shared" si="4"/>
         <v>309385.78000000003</v>
       </c>
       <c r="G276" s="2" t="s">
@@ -12360,7 +12363,7 @@
         <v>320</v>
       </c>
       <c r="F277" s="3">
-        <f>+F276+E277</f>
+        <f t="shared" si="4"/>
         <v>309705.78000000003</v>
       </c>
       <c r="G277" s="9" t="s">
@@ -12396,7 +12399,7 @@
         <v>770</v>
       </c>
       <c r="F278" s="3">
-        <f>+F277+E278</f>
+        <f t="shared" si="4"/>
         <v>310475.78000000003</v>
       </c>
       <c r="G278" s="2" t="s">
@@ -12432,7 +12435,7 @@
         <v>350</v>
       </c>
       <c r="F279" s="3">
-        <f>+F278+E279</f>
+        <f t="shared" si="4"/>
         <v>310825.78000000003</v>
       </c>
       <c r="G279" s="9" t="s">
@@ -12468,7 +12471,7 @@
         <v>320</v>
       </c>
       <c r="F280" s="3">
-        <f>+F279+E280</f>
+        <f t="shared" si="4"/>
         <v>311145.78000000003</v>
       </c>
       <c r="G280" s="2" t="s">
@@ -12504,7 +12507,7 @@
         <v>280</v>
       </c>
       <c r="F281" s="3">
-        <f>+F280+E281</f>
+        <f t="shared" si="4"/>
         <v>311425.78000000003</v>
       </c>
       <c r="G281" s="9" t="s">
@@ -12540,7 +12543,7 @@
         <v>350</v>
       </c>
       <c r="F282" s="3">
-        <f>+F281+E282</f>
+        <f t="shared" si="4"/>
         <v>311775.78000000003</v>
       </c>
       <c r="G282" s="2" t="s">
@@ -12576,7 +12579,7 @@
         <v>320</v>
       </c>
       <c r="F283" s="3">
-        <f>+F282+E283</f>
+        <f t="shared" si="4"/>
         <v>312095.78000000003</v>
       </c>
       <c r="G283" s="9" t="s">
@@ -12612,7 +12615,7 @@
         <v>385</v>
       </c>
       <c r="F284" s="3">
-        <f>+F283+E284</f>
+        <f t="shared" si="4"/>
         <v>312480.78000000003</v>
       </c>
       <c r="G284" s="2" t="s">
@@ -12648,7 +12651,7 @@
         <v>320</v>
       </c>
       <c r="F285" s="3">
-        <f>+F284+E285</f>
+        <f t="shared" si="4"/>
         <v>312800.78000000003</v>
       </c>
       <c r="G285" s="9" t="s">
@@ -12684,7 +12687,7 @@
         <v>350</v>
       </c>
       <c r="F286" s="3">
-        <f>+F285+E286</f>
+        <f t="shared" si="4"/>
         <v>313150.78000000003</v>
       </c>
       <c r="G286" s="2" t="s">
@@ -12720,7 +12723,7 @@
         <v>350</v>
       </c>
       <c r="F287" s="3">
-        <f>+F286+E287</f>
+        <f t="shared" si="4"/>
         <v>313500.78000000003</v>
       </c>
       <c r="G287" s="9" t="s">
@@ -12756,7 +12759,7 @@
         <v>420</v>
       </c>
       <c r="F288" s="3">
-        <f>+F287+E288</f>
+        <f t="shared" si="4"/>
         <v>313920.78000000003</v>
       </c>
       <c r="G288" s="2" t="s">
@@ -12792,7 +12795,7 @@
         <v>385</v>
       </c>
       <c r="F289" s="3">
-        <f>+F288+E289</f>
+        <f t="shared" si="4"/>
         <v>314305.78000000003</v>
       </c>
       <c r="G289" s="9" t="s">
@@ -12828,7 +12831,7 @@
         <v>320</v>
       </c>
       <c r="F290" s="3">
-        <f>+F289+E290</f>
+        <f t="shared" si="4"/>
         <v>314625.78000000003</v>
       </c>
       <c r="G290" s="2" t="s">
@@ -12864,7 +12867,7 @@
         <v>385</v>
       </c>
       <c r="F291" s="3">
-        <f>+F290+E291</f>
+        <f t="shared" si="4"/>
         <v>315010.78000000003</v>
       </c>
       <c r="G291" s="9" t="s">
@@ -12900,7 +12903,7 @@
         <v>350</v>
       </c>
       <c r="F292" s="3">
-        <f>+F291+E292</f>
+        <f t="shared" si="4"/>
         <v>315360.78000000003</v>
       </c>
       <c r="G292" s="2" t="s">
@@ -12936,7 +12939,7 @@
         <v>350</v>
       </c>
       <c r="F293" s="3">
-        <f>+F292+E293</f>
+        <f t="shared" si="4"/>
         <v>315710.78000000003</v>
       </c>
       <c r="G293" s="9" t="s">
@@ -12972,7 +12975,7 @@
         <v>385</v>
       </c>
       <c r="F294" s="3">
-        <f>+F293+E294</f>
+        <f t="shared" si="4"/>
         <v>316095.78000000003</v>
       </c>
       <c r="G294" s="2" t="s">
@@ -13008,7 +13011,7 @@
         <v>320</v>
       </c>
       <c r="F295" s="3">
-        <f>+F294+E295</f>
+        <f t="shared" si="4"/>
         <v>316415.78000000003</v>
       </c>
       <c r="G295" s="9" t="s">
@@ -13044,7 +13047,7 @@
         <v>320</v>
       </c>
       <c r="F296" s="3">
-        <f>+F295+E296</f>
+        <f t="shared" si="4"/>
         <v>316735.78000000003</v>
       </c>
       <c r="G296" s="2" t="s">
@@ -13080,7 +13083,7 @@
         <v>350</v>
       </c>
       <c r="F297" s="3">
-        <f>+F296+E297</f>
+        <f t="shared" si="4"/>
         <v>317085.78000000003</v>
       </c>
       <c r="G297" s="9" t="s">
@@ -13116,7 +13119,7 @@
         <v>200</v>
       </c>
       <c r="F298" s="3">
-        <f>+F297+E298</f>
+        <f t="shared" si="4"/>
         <v>317285.78000000003</v>
       </c>
       <c r="G298" s="2" t="s">
@@ -13152,7 +13155,7 @@
         <v>320</v>
       </c>
       <c r="F299" s="3">
-        <f>+F298+E299</f>
+        <f t="shared" si="4"/>
         <v>317605.78000000003</v>
       </c>
       <c r="G299" s="9" t="s">
@@ -13188,7 +13191,7 @@
         <v>320</v>
       </c>
       <c r="F300" s="3">
-        <f>+F299+E300</f>
+        <f t="shared" si="4"/>
         <v>317925.78000000003</v>
       </c>
       <c r="G300" s="2" t="s">
@@ -13224,7 +13227,7 @@
         <v>320</v>
       </c>
       <c r="F301" s="3">
-        <f>+F300+E301</f>
+        <f t="shared" si="4"/>
         <v>318245.78000000003</v>
       </c>
       <c r="G301" s="9" t="s">
@@ -13260,7 +13263,7 @@
         <v>320</v>
       </c>
       <c r="F302" s="3">
-        <f>+F301+E302</f>
+        <f t="shared" si="4"/>
         <v>318565.78000000003</v>
       </c>
       <c r="G302" s="2" t="s">
@@ -13296,7 +13299,7 @@
         <v>320</v>
       </c>
       <c r="F303" s="3">
-        <f>+F302+E303</f>
+        <f t="shared" si="4"/>
         <v>318885.78000000003</v>
       </c>
       <c r="G303" s="9" t="s">
@@ -13332,7 +13335,7 @@
         <v>3272.5</v>
       </c>
       <c r="F304" s="3">
-        <f>+F303+E304</f>
+        <f t="shared" si="4"/>
         <v>322158.28000000003</v>
       </c>
       <c r="G304" s="2" t="s">
@@ -13368,7 +13371,7 @@
         <v>320</v>
       </c>
       <c r="F305" s="3">
-        <f>+F304+E305</f>
+        <f t="shared" si="4"/>
         <v>322478.28000000003</v>
       </c>
       <c r="G305" s="9" t="s">
@@ -13404,7 +13407,7 @@
         <v>350</v>
       </c>
       <c r="F306" s="3">
-        <f>+F305+E306</f>
+        <f t="shared" si="4"/>
         <v>322828.28000000003</v>
       </c>
       <c r="G306" s="2" t="s">
@@ -13440,7 +13443,7 @@
         <v>320</v>
       </c>
       <c r="F307" s="3">
-        <f>+F306+E307</f>
+        <f t="shared" si="4"/>
         <v>323148.28000000003</v>
       </c>
       <c r="G307" s="9" t="s">
@@ -13476,7 +13479,7 @@
         <v>320</v>
       </c>
       <c r="F308" s="3">
-        <f>+F307+E308</f>
+        <f t="shared" si="4"/>
         <v>323468.28000000003</v>
       </c>
       <c r="G308" s="2" t="s">
@@ -13512,7 +13515,7 @@
         <v>2520</v>
       </c>
       <c r="F309" s="3">
-        <f>+F308+E309</f>
+        <f t="shared" si="4"/>
         <v>325988.28000000003</v>
       </c>
       <c r="G309" s="9" t="s">
@@ -13548,7 +13551,7 @@
         <v>280</v>
       </c>
       <c r="F310" s="3">
-        <f>+F309+E310</f>
+        <f t="shared" si="4"/>
         <v>326268.28000000003</v>
       </c>
       <c r="G310" s="2" t="s">
@@ -13584,7 +13587,7 @@
         <v>350</v>
       </c>
       <c r="F311" s="3">
-        <f>+F310+E311</f>
+        <f t="shared" si="4"/>
         <v>326618.28000000003</v>
       </c>
       <c r="G311" s="9" t="s">
@@ -13620,7 +13623,7 @@
         <v>500</v>
       </c>
       <c r="F312" s="3">
-        <f>+F311+E312</f>
+        <f t="shared" si="4"/>
         <v>327118.28000000003</v>
       </c>
       <c r="G312" s="2" t="s">
@@ -13656,7 +13659,7 @@
         <v>320</v>
       </c>
       <c r="F313" s="3">
-        <f>+F312+E313</f>
+        <f t="shared" si="4"/>
         <v>327438.28000000003</v>
       </c>
       <c r="G313" s="9" t="s">
@@ -13692,7 +13695,7 @@
         <v>350</v>
       </c>
       <c r="F314" s="3">
-        <f>+F313+E314</f>
+        <f t="shared" si="4"/>
         <v>327788.28000000003</v>
       </c>
       <c r="G314" s="2" t="s">
@@ -13728,7 +13731,7 @@
         <v>320</v>
       </c>
       <c r="F315" s="3">
-        <f>+F314+E315</f>
+        <f t="shared" si="4"/>
         <v>328108.28000000003</v>
       </c>
       <c r="G315" s="9" t="s">
@@ -13764,7 +13767,7 @@
         <v>320</v>
       </c>
       <c r="F316" s="3">
-        <f>+F315+E316</f>
+        <f t="shared" si="4"/>
         <v>328428.28000000003</v>
       </c>
       <c r="G316" s="2" t="s">
@@ -13800,7 +13803,7 @@
         <v>320</v>
       </c>
       <c r="F317" s="3">
-        <f>+F316+E317</f>
+        <f t="shared" si="4"/>
         <v>328748.28000000003</v>
       </c>
       <c r="G317" s="9" t="s">
@@ -13836,7 +13839,7 @@
         <v>280</v>
       </c>
       <c r="F318" s="3">
-        <f>+F317+E318</f>
+        <f t="shared" si="4"/>
         <v>329028.28000000003</v>
       </c>
       <c r="G318" s="2" t="s">
@@ -13872,7 +13875,7 @@
         <v>595</v>
       </c>
       <c r="F319" s="3">
-        <f>+F318+E319</f>
+        <f t="shared" si="4"/>
         <v>329623.28000000003</v>
       </c>
       <c r="G319" s="9" t="s">
@@ -13908,7 +13911,7 @@
         <v>840</v>
       </c>
       <c r="F320" s="3">
-        <f>+F319+E320</f>
+        <f t="shared" si="4"/>
         <v>330463.28000000003</v>
       </c>
       <c r="G320" s="2" t="s">
@@ -13944,7 +13947,7 @@
         <v>385</v>
       </c>
       <c r="F321" s="3">
-        <f>+F320+E321</f>
+        <f t="shared" si="4"/>
         <v>330848.28000000003</v>
       </c>
       <c r="G321" s="9" t="s">
@@ -13980,7 +13983,7 @@
         <v>3724.5</v>
       </c>
       <c r="F322" s="3">
-        <f>+F321+E322</f>
+        <f t="shared" ref="F322:F385" si="5">+F321+E322</f>
         <v>334572.78000000003</v>
       </c>
       <c r="G322" s="2" t="s">
@@ -14016,7 +14019,7 @@
         <v>280</v>
       </c>
       <c r="F323" s="3">
-        <f>+F322+E323</f>
+        <f t="shared" si="5"/>
         <v>334852.78000000003</v>
       </c>
       <c r="G323" s="9" t="s">
@@ -14052,7 +14055,7 @@
         <v>350</v>
       </c>
       <c r="F324" s="3">
-        <f>+F323+E324</f>
+        <f t="shared" si="5"/>
         <v>335202.78000000003</v>
       </c>
       <c r="G324" s="2" t="s">
@@ -14088,7 +14091,7 @@
         <v>100</v>
       </c>
       <c r="F325" s="3">
-        <f>+F324+E325</f>
+        <f t="shared" si="5"/>
         <v>335302.78000000003</v>
       </c>
       <c r="G325" s="9" t="s">
@@ -14124,7 +14127,7 @@
         <v>320</v>
       </c>
       <c r="F326" s="3">
-        <f>+F325+E326</f>
+        <f t="shared" si="5"/>
         <v>335622.78</v>
       </c>
       <c r="G326" s="2" t="s">
@@ -14160,7 +14163,7 @@
         <v>350</v>
       </c>
       <c r="F327" s="3">
-        <f>+F326+E327</f>
+        <f t="shared" si="5"/>
         <v>335972.78</v>
       </c>
       <c r="G327" s="9" t="s">
@@ -14196,7 +14199,7 @@
         <v>320</v>
       </c>
       <c r="F328" s="3">
-        <f>+F327+E328</f>
+        <f t="shared" si="5"/>
         <v>336292.78</v>
       </c>
       <c r="G328" s="2" t="s">
@@ -14232,7 +14235,7 @@
         <v>100</v>
       </c>
       <c r="F329" s="3">
-        <f>+F328+E329</f>
+        <f t="shared" si="5"/>
         <v>336392.78</v>
       </c>
       <c r="G329" s="9" t="s">
@@ -14266,7 +14269,7 @@
         <v>100</v>
       </c>
       <c r="F330" s="3">
-        <f>+F329+E330</f>
+        <f t="shared" si="5"/>
         <v>336492.78</v>
       </c>
       <c r="G330" s="2" t="s">
@@ -14302,7 +14305,7 @@
         <v>770</v>
       </c>
       <c r="F331" s="3">
-        <f>+F330+E331</f>
+        <f t="shared" si="5"/>
         <v>337262.78</v>
       </c>
       <c r="G331" s="9" t="s">
@@ -14338,7 +14341,7 @@
         <v>100</v>
       </c>
       <c r="F332" s="3">
-        <f>+F331+E332</f>
+        <f t="shared" si="5"/>
         <v>337362.78</v>
       </c>
       <c r="G332" s="2" t="s">
@@ -14374,7 +14377,7 @@
         <v>1200</v>
       </c>
       <c r="F333" s="3">
-        <f>+F332+E333</f>
+        <f t="shared" si="5"/>
         <v>338562.78</v>
       </c>
       <c r="G333" s="9" t="s">
@@ -14410,7 +14413,7 @@
         <v>70</v>
       </c>
       <c r="F334" s="3">
-        <f>+F333+E334</f>
+        <f t="shared" si="5"/>
         <v>338632.78</v>
       </c>
       <c r="G334" s="2" t="s">
@@ -14446,7 +14449,7 @@
         <v>320</v>
       </c>
       <c r="F335" s="3">
-        <f>+F334+E335</f>
+        <f t="shared" si="5"/>
         <v>338952.78</v>
       </c>
       <c r="G335" s="9" t="s">
@@ -14482,7 +14485,7 @@
         <v>320</v>
       </c>
       <c r="F336" s="3">
-        <f>+F335+E336</f>
+        <f t="shared" si="5"/>
         <v>339272.78</v>
       </c>
       <c r="G336" s="2" t="s">
@@ -14518,7 +14521,7 @@
         <v>320</v>
       </c>
       <c r="F337" s="3">
-        <f>+F336+E337</f>
+        <f t="shared" si="5"/>
         <v>339592.78</v>
       </c>
       <c r="G337" s="9" t="s">
@@ -14554,7 +14557,7 @@
         <v>320</v>
       </c>
       <c r="F338" s="3">
-        <f>+F337+E338</f>
+        <f t="shared" si="5"/>
         <v>339912.78</v>
       </c>
       <c r="G338" s="2" t="s">
@@ -14590,7 +14593,7 @@
         <v>2520</v>
       </c>
       <c r="F339" s="3">
-        <f>+F338+E339</f>
+        <f t="shared" si="5"/>
         <v>342432.78</v>
       </c>
       <c r="G339" s="9" t="s">
@@ -14626,7 +14629,7 @@
         <v>133</v>
       </c>
       <c r="F340" s="3">
-        <f>+F339+E340</f>
+        <f t="shared" si="5"/>
         <v>342565.78</v>
       </c>
       <c r="G340" s="2" t="s">
@@ -14662,7 +14665,7 @@
         <v>1920</v>
       </c>
       <c r="F341" s="3">
-        <f>+F340+E341</f>
+        <f t="shared" si="5"/>
         <v>344485.78</v>
       </c>
       <c r="G341" s="9" t="s">
@@ -14698,7 +14701,7 @@
         <v>280</v>
       </c>
       <c r="F342" s="3">
-        <f>+F341+E342</f>
+        <f t="shared" si="5"/>
         <v>344765.78</v>
       </c>
       <c r="G342" s="2" t="s">
@@ -14734,7 +14737,7 @@
         <v>320</v>
       </c>
       <c r="F343" s="3">
-        <f>+F342+E343</f>
+        <f t="shared" si="5"/>
         <v>345085.78</v>
       </c>
       <c r="G343" s="9" t="s">
@@ -14770,7 +14773,7 @@
         <v>840</v>
       </c>
       <c r="F344" s="3">
-        <f>+F343+E344</f>
+        <f t="shared" si="5"/>
         <v>345925.78</v>
       </c>
       <c r="G344" s="2" t="s">
@@ -14806,7 +14809,7 @@
         <v>2940</v>
       </c>
       <c r="F345" s="3">
-        <f>+F344+E345</f>
+        <f t="shared" si="5"/>
         <v>348865.78</v>
       </c>
       <c r="G345" s="9" t="s">
@@ -14842,7 +14845,7 @@
         <v>930</v>
       </c>
       <c r="F346" s="3">
-        <f>+F345+E346</f>
+        <f t="shared" si="5"/>
         <v>349795.78</v>
       </c>
       <c r="G346" s="2" t="s">
@@ -14878,7 +14881,7 @@
         <v>1860</v>
       </c>
       <c r="F347" s="3">
-        <f>+F346+E347</f>
+        <f t="shared" si="5"/>
         <v>351655.78</v>
       </c>
       <c r="G347" s="9" t="s">
@@ -14914,7 +14917,7 @@
         <v>280</v>
       </c>
       <c r="F348" s="3">
-        <f>+F347+E348</f>
+        <f t="shared" si="5"/>
         <v>351935.78</v>
       </c>
       <c r="G348" s="2" t="s">
@@ -14950,7 +14953,7 @@
         <v>320</v>
       </c>
       <c r="F349" s="3">
-        <f>+F348+E349</f>
+        <f t="shared" si="5"/>
         <v>352255.78</v>
       </c>
       <c r="G349" s="9" t="s">
@@ -14986,7 +14989,7 @@
         <v>320</v>
       </c>
       <c r="F350" s="3">
-        <f>+F349+E350</f>
+        <f t="shared" si="5"/>
         <v>352575.78</v>
       </c>
       <c r="G350" s="2" t="s">
@@ -15022,7 +15025,7 @@
         <v>500</v>
       </c>
       <c r="F351" s="3">
-        <f>+F350+E351</f>
+        <f t="shared" si="5"/>
         <v>353075.78</v>
       </c>
       <c r="G351" s="9" t="s">
@@ -15058,7 +15061,7 @@
         <v>595</v>
       </c>
       <c r="F352" s="3">
-        <f>+F351+E352</f>
+        <f t="shared" si="5"/>
         <v>353670.78</v>
       </c>
       <c r="G352" s="2" t="s">
@@ -15094,7 +15097,7 @@
         <v>595</v>
       </c>
       <c r="F353" s="3">
-        <f>+F352+E353</f>
+        <f t="shared" si="5"/>
         <v>354265.78</v>
       </c>
       <c r="G353" s="9" t="s">
@@ -15130,7 +15133,7 @@
         <v>595</v>
       </c>
       <c r="F354" s="3">
-        <f>+F353+E354</f>
+        <f t="shared" si="5"/>
         <v>354860.78</v>
       </c>
       <c r="G354" s="2" t="s">
@@ -15166,7 +15169,7 @@
         <v>280</v>
       </c>
       <c r="F355" s="3">
-        <f>+F354+E355</f>
+        <f t="shared" si="5"/>
         <v>355140.78</v>
       </c>
       <c r="G355" s="9" t="s">
@@ -15202,7 +15205,7 @@
         <v>280</v>
       </c>
       <c r="F356" s="3">
-        <f>+F355+E356</f>
+        <f t="shared" si="5"/>
         <v>355420.78</v>
       </c>
       <c r="G356" s="2" t="s">
@@ -15238,7 +15241,7 @@
         <v>320</v>
       </c>
       <c r="F357" s="3">
-        <f>+F356+E357</f>
+        <f t="shared" si="5"/>
         <v>355740.78</v>
       </c>
       <c r="G357" s="9" t="s">
@@ -15274,7 +15277,7 @@
         <v>595</v>
       </c>
       <c r="F358" s="3">
-        <f>+F357+E358</f>
+        <f t="shared" si="5"/>
         <v>356335.78</v>
       </c>
       <c r="G358" s="2" t="s">
@@ -15310,7 +15313,7 @@
         <v>3850</v>
       </c>
       <c r="F359" s="3">
-        <f>+F358+E359</f>
+        <f t="shared" si="5"/>
         <v>360185.78</v>
       </c>
       <c r="G359" s="9" t="s">
@@ -15346,7 +15349,7 @@
         <v>280</v>
       </c>
       <c r="F360" s="3">
-        <f>+F359+E360</f>
+        <f t="shared" si="5"/>
         <v>360465.78</v>
       </c>
       <c r="G360" s="2" t="s">
@@ -15382,7 +15385,7 @@
         <v>280</v>
       </c>
       <c r="F361" s="3">
-        <f>+F360+E361</f>
+        <f t="shared" si="5"/>
         <v>360745.78</v>
       </c>
       <c r="G361" s="9" t="s">
@@ -15418,7 +15421,7 @@
         <v>280</v>
       </c>
       <c r="F362" s="3">
-        <f>+F361+E362</f>
+        <f t="shared" si="5"/>
         <v>361025.78</v>
       </c>
       <c r="G362" s="2" t="s">
@@ -15454,7 +15457,7 @@
         <v>350</v>
       </c>
       <c r="F363" s="3">
-        <f>+F362+E363</f>
+        <f t="shared" si="5"/>
         <v>361375.78</v>
       </c>
       <c r="G363" s="9" t="s">
@@ -15490,7 +15493,7 @@
         <v>880</v>
       </c>
       <c r="F364" s="3">
-        <f>+F363+E364</f>
+        <f t="shared" si="5"/>
         <v>362255.78</v>
       </c>
       <c r="G364" s="2" t="s">
@@ -15526,7 +15529,7 @@
         <v>640</v>
       </c>
       <c r="F365" s="3">
-        <f>+F364+E365</f>
+        <f t="shared" si="5"/>
         <v>362895.78</v>
       </c>
       <c r="G365" s="9" t="s">
@@ -15562,7 +15565,7 @@
         <v>1092</v>
       </c>
       <c r="F366" s="3">
-        <f>+F365+E366</f>
+        <f t="shared" si="5"/>
         <v>363987.78</v>
       </c>
       <c r="G366" s="2" t="s">
@@ -15598,7 +15601,7 @@
         <v>600</v>
       </c>
       <c r="F367" s="3">
-        <f>+F366+E367</f>
+        <f t="shared" si="5"/>
         <v>364587.78</v>
       </c>
       <c r="G367" s="9" t="s">
@@ -15634,7 +15637,7 @@
         <v>280</v>
       </c>
       <c r="F368" s="3">
-        <f>+F367+E368</f>
+        <f t="shared" si="5"/>
         <v>364867.78</v>
       </c>
       <c r="G368" s="2" t="s">
@@ -15670,7 +15673,7 @@
         <v>320</v>
       </c>
       <c r="F369" s="3">
-        <f>+F368+E369</f>
+        <f t="shared" si="5"/>
         <v>365187.78</v>
       </c>
       <c r="G369" s="9" t="s">
@@ -15706,7 +15709,7 @@
         <v>280</v>
       </c>
       <c r="F370" s="3">
-        <f>+F369+E370</f>
+        <f t="shared" si="5"/>
         <v>365467.78</v>
       </c>
       <c r="G370" s="2" t="s">
@@ -15742,7 +15745,7 @@
         <v>280</v>
       </c>
       <c r="F371" s="3">
-        <f>+F370+E371</f>
+        <f t="shared" si="5"/>
         <v>365747.78</v>
       </c>
       <c r="G371" s="9" t="s">
@@ -15778,7 +15781,7 @@
         <v>640</v>
       </c>
       <c r="F372" s="3">
-        <f>+F371+E372</f>
+        <f t="shared" si="5"/>
         <v>366387.78</v>
       </c>
       <c r="G372" s="2" t="s">
@@ -15814,7 +15817,7 @@
         <v>980</v>
       </c>
       <c r="F373" s="3">
-        <f>+F372+E373</f>
+        <f t="shared" si="5"/>
         <v>367367.78</v>
       </c>
       <c r="G373" s="9" t="s">
@@ -15850,7 +15853,7 @@
         <v>580</v>
       </c>
       <c r="F374" s="3">
-        <f>+F373+E374</f>
+        <f t="shared" si="5"/>
         <v>367947.78</v>
       </c>
       <c r="G374" s="2" t="s">
@@ -15886,7 +15889,7 @@
         <v>320</v>
       </c>
       <c r="F375" s="3">
-        <f>+F374+E375</f>
+        <f t="shared" si="5"/>
         <v>368267.78</v>
       </c>
       <c r="G375" s="9" t="s">
@@ -15922,7 +15925,7 @@
         <v>600</v>
       </c>
       <c r="F376" s="3">
-        <f>+F375+E376</f>
+        <f t="shared" si="5"/>
         <v>368867.78</v>
       </c>
       <c r="G376" s="2" t="s">
@@ -15958,7 +15961,7 @@
         <v>1080</v>
       </c>
       <c r="F377" s="3">
-        <f>+F376+E377</f>
+        <f t="shared" si="5"/>
         <v>369947.78</v>
       </c>
       <c r="G377" s="9" t="s">
@@ -15994,7 +15997,7 @@
         <v>100</v>
       </c>
       <c r="F378" s="3">
-        <f>+F377+E378</f>
+        <f t="shared" si="5"/>
         <v>370047.78</v>
       </c>
       <c r="G378" s="2" t="s">
@@ -16030,7 +16033,7 @@
         <v>9000</v>
       </c>
       <c r="F379" s="3">
-        <f>+F378+E379</f>
+        <f t="shared" si="5"/>
         <v>379047.78</v>
       </c>
       <c r="G379" s="9" t="s">
@@ -16066,7 +16069,7 @@
         <v>280</v>
       </c>
       <c r="F380" s="3">
-        <f>+F379+E380</f>
+        <f t="shared" si="5"/>
         <v>379327.78</v>
       </c>
       <c r="G380" s="2" t="s">
@@ -16102,7 +16105,7 @@
         <v>200</v>
       </c>
       <c r="F381" s="3">
-        <f>+F380+E381</f>
+        <f t="shared" si="5"/>
         <v>379527.78</v>
       </c>
       <c r="G381" s="9" t="s">
@@ -16138,7 +16141,7 @@
         <v>385</v>
       </c>
       <c r="F382" s="3">
-        <f>+F381+E382</f>
+        <f t="shared" si="5"/>
         <v>379912.78</v>
       </c>
       <c r="G382" s="2" t="s">
@@ -16174,7 +16177,7 @@
         <v>2940</v>
       </c>
       <c r="F383" s="3">
-        <f>+F382+E383</f>
+        <f t="shared" si="5"/>
         <v>382852.78</v>
       </c>
       <c r="G383" s="9" t="s">
@@ -16210,7 +16213,7 @@
         <v>280</v>
       </c>
       <c r="F384" s="3">
-        <f>+F383+E384</f>
+        <f t="shared" si="5"/>
         <v>383132.78</v>
       </c>
       <c r="G384" s="2" t="s">
@@ -16246,7 +16249,7 @@
         <v>840</v>
       </c>
       <c r="F385" s="3">
-        <f>+F384+E385</f>
+        <f t="shared" si="5"/>
         <v>383972.78</v>
       </c>
       <c r="G385" s="9" t="s">
@@ -16282,7 +16285,7 @@
         <v>280</v>
       </c>
       <c r="F386" s="3">
-        <f>+F385+E386</f>
+        <f t="shared" ref="F386:F449" si="6">+F385+E386</f>
         <v>384252.78</v>
       </c>
       <c r="G386" s="2" t="s">
@@ -16318,7 +16321,7 @@
         <v>280</v>
       </c>
       <c r="F387" s="3">
-        <f>+F386+E387</f>
+        <f t="shared" si="6"/>
         <v>384532.78</v>
       </c>
       <c r="G387" s="9" t="s">
@@ -16354,7 +16357,7 @@
         <v>280</v>
       </c>
       <c r="F388" s="3">
-        <f>+F387+E388</f>
+        <f t="shared" si="6"/>
         <v>384812.78</v>
       </c>
       <c r="G388" s="2" t="s">
@@ -16390,7 +16393,7 @@
         <v>700</v>
       </c>
       <c r="F389" s="3">
-        <f>+F388+E389</f>
+        <f t="shared" si="6"/>
         <v>385512.78</v>
       </c>
       <c r="G389" s="9" t="s">
@@ -16426,7 +16429,7 @@
         <v>595</v>
       </c>
       <c r="F390" s="3">
-        <f>+F389+E390</f>
+        <f t="shared" si="6"/>
         <v>386107.78</v>
       </c>
       <c r="G390" s="2" t="s">
@@ -16462,7 +16465,7 @@
         <v>280</v>
       </c>
       <c r="F391" s="3">
-        <f>+F390+E391</f>
+        <f t="shared" si="6"/>
         <v>386387.78</v>
       </c>
       <c r="G391" s="9" t="s">
@@ -16498,7 +16501,7 @@
         <v>280</v>
       </c>
       <c r="F392" s="3">
-        <f>+F391+E392</f>
+        <f t="shared" si="6"/>
         <v>386667.78</v>
       </c>
       <c r="G392" s="2" t="s">
@@ -16534,7 +16537,7 @@
         <v>280</v>
       </c>
       <c r="F393" s="3">
-        <f>+F392+E393</f>
+        <f t="shared" si="6"/>
         <v>386947.78</v>
       </c>
       <c r="G393" s="9" t="s">
@@ -16570,7 +16573,7 @@
         <v>280</v>
       </c>
       <c r="F394" s="3">
-        <f>+F393+E394</f>
+        <f t="shared" si="6"/>
         <v>387227.78</v>
       </c>
       <c r="G394" s="2" t="s">
@@ -16606,7 +16609,7 @@
         <v>10150</v>
       </c>
       <c r="F395" s="3">
-        <f>+F394+E395</f>
+        <f t="shared" si="6"/>
         <v>397377.78</v>
       </c>
       <c r="G395" s="9" t="s">
@@ -16642,7 +16645,7 @@
         <v>2550</v>
       </c>
       <c r="F396" s="3">
-        <f>+F395+E396</f>
+        <f t="shared" si="6"/>
         <v>399927.78</v>
       </c>
       <c r="G396" s="2" t="s">
@@ -16678,7 +16681,7 @@
         <v>280</v>
       </c>
       <c r="F397" s="3">
-        <f>+F396+E397</f>
+        <f t="shared" si="6"/>
         <v>400207.78</v>
       </c>
       <c r="G397" s="9" t="s">
@@ -16714,7 +16717,7 @@
         <v>360</v>
       </c>
       <c r="F398" s="3">
-        <f>+F397+E398</f>
+        <f t="shared" si="6"/>
         <v>400567.78</v>
       </c>
       <c r="G398" s="2" t="s">
@@ -16750,7 +16753,7 @@
         <v>280</v>
       </c>
       <c r="F399" s="3">
-        <f>+F398+E399</f>
+        <f t="shared" si="6"/>
         <v>400847.78</v>
       </c>
       <c r="G399" s="9" t="s">
@@ -16786,7 +16789,7 @@
         <v>385</v>
       </c>
       <c r="F400" s="3">
-        <f>+F399+E400</f>
+        <f t="shared" si="6"/>
         <v>401232.78</v>
       </c>
       <c r="G400" s="2" t="s">
@@ -16822,7 +16825,7 @@
         <v>280</v>
       </c>
       <c r="F401" s="3">
-        <f>+F400+E401</f>
+        <f t="shared" si="6"/>
         <v>401512.78</v>
       </c>
       <c r="G401" s="9" t="s">
@@ -16858,7 +16861,7 @@
         <v>280</v>
       </c>
       <c r="F402" s="3">
-        <f>+F401+E402</f>
+        <f t="shared" si="6"/>
         <v>401792.78</v>
       </c>
       <c r="G402" s="2" t="s">
@@ -16894,7 +16897,7 @@
         <v>280</v>
       </c>
       <c r="F403" s="3">
-        <f>+F402+E403</f>
+        <f t="shared" si="6"/>
         <v>402072.78</v>
       </c>
       <c r="G403" s="9" t="s">
@@ -16930,7 +16933,7 @@
         <v>350</v>
       </c>
       <c r="F404" s="3">
-        <f>+F403+E404</f>
+        <f t="shared" si="6"/>
         <v>402422.78</v>
       </c>
       <c r="G404" s="2" t="s">
@@ -16966,7 +16969,7 @@
         <v>280</v>
       </c>
       <c r="F405" s="3">
-        <f>+F404+E405</f>
+        <f t="shared" si="6"/>
         <v>402702.78</v>
       </c>
       <c r="G405" s="9" t="s">
@@ -17002,7 +17005,7 @@
         <v>840</v>
       </c>
       <c r="F406" s="3">
-        <f>+F405+E406</f>
+        <f t="shared" si="6"/>
         <v>403542.78</v>
       </c>
       <c r="G406" s="2" t="s">
@@ -17038,7 +17041,7 @@
         <v>97.5</v>
       </c>
       <c r="F407" s="3">
-        <f>+F406+E407</f>
+        <f t="shared" si="6"/>
         <v>403640.28</v>
       </c>
       <c r="G407" s="9" t="s">
@@ -17074,7 +17077,7 @@
         <v>840</v>
       </c>
       <c r="F408" s="3">
-        <f>+F407+E408</f>
+        <f t="shared" si="6"/>
         <v>404480.28</v>
       </c>
       <c r="G408" s="2" t="s">
@@ -17110,7 +17113,7 @@
         <v>320</v>
       </c>
       <c r="F409" s="3">
-        <f>+F408+E409</f>
+        <f t="shared" si="6"/>
         <v>404800.28</v>
       </c>
       <c r="G409" s="9" t="s">
@@ -17146,7 +17149,7 @@
         <v>840</v>
       </c>
       <c r="F410" s="3">
-        <f>+F409+E410</f>
+        <f t="shared" si="6"/>
         <v>405640.28</v>
       </c>
       <c r="G410" s="2" t="s">
@@ -17182,7 +17185,7 @@
         <v>350</v>
       </c>
       <c r="F411" s="3">
-        <f>+F410+E411</f>
+        <f t="shared" si="6"/>
         <v>405990.28</v>
       </c>
       <c r="G411" s="9" t="s">
@@ -17218,7 +17221,7 @@
         <v>2130</v>
       </c>
       <c r="F412" s="3">
-        <f>+F411+E412</f>
+        <f t="shared" si="6"/>
         <v>408120.28</v>
       </c>
       <c r="G412" s="2" t="s">
@@ -17254,7 +17257,7 @@
         <v>6400</v>
       </c>
       <c r="F413" s="3">
-        <f>+F412+E413</f>
+        <f t="shared" si="6"/>
         <v>414520.28</v>
       </c>
       <c r="G413" s="9" t="s">
@@ -17290,7 +17293,7 @@
         <v>660</v>
       </c>
       <c r="F414" s="3">
-        <f>+F413+E414</f>
+        <f t="shared" si="6"/>
         <v>415180.28</v>
       </c>
       <c r="G414" s="2" t="s">
@@ -17326,7 +17329,7 @@
         <v>350</v>
       </c>
       <c r="F415" s="3">
-        <f>+F414+E415</f>
+        <f t="shared" si="6"/>
         <v>415530.28</v>
       </c>
       <c r="G415" s="9" t="s">
@@ -17362,7 +17365,7 @@
         <v>2940</v>
       </c>
       <c r="F416" s="3">
-        <f>+F415+E416</f>
+        <f t="shared" si="6"/>
         <v>418470.28</v>
       </c>
       <c r="G416" s="2" t="s">
@@ -17398,7 +17401,7 @@
         <v>2520</v>
       </c>
       <c r="F417" s="3">
-        <f>+F416+E417</f>
+        <f t="shared" si="6"/>
         <v>420990.28</v>
       </c>
       <c r="G417" s="9" t="s">
@@ -17434,7 +17437,7 @@
         <v>2520</v>
       </c>
       <c r="F418" s="3">
-        <f>+F417+E418</f>
+        <f t="shared" si="6"/>
         <v>423510.28</v>
       </c>
       <c r="G418" s="2" t="s">
@@ -17470,7 +17473,7 @@
         <v>595</v>
       </c>
       <c r="F419" s="3">
-        <f>+F418+E419</f>
+        <f t="shared" si="6"/>
         <v>424105.28</v>
       </c>
       <c r="G419" s="9" t="s">
@@ -17506,7 +17509,7 @@
         <v>840</v>
       </c>
       <c r="F420" s="3">
-        <f>+F419+E420</f>
+        <f t="shared" si="6"/>
         <v>424945.28</v>
       </c>
       <c r="G420" s="2" t="s">
@@ -17542,7 +17545,7 @@
         <v>637.5</v>
       </c>
       <c r="F421" s="3">
-        <f>+F420+E421</f>
+        <f t="shared" si="6"/>
         <v>425582.78</v>
       </c>
       <c r="G421" s="9" t="s">
@@ -17578,7 +17581,7 @@
         <v>1400</v>
       </c>
       <c r="F422" s="3">
-        <f>+F421+E422</f>
+        <f t="shared" si="6"/>
         <v>426982.78</v>
       </c>
       <c r="G422" s="2" t="s">
@@ -17614,7 +17617,7 @@
         <v>2520</v>
       </c>
       <c r="F423" s="3">
-        <f>+F422+E423</f>
+        <f t="shared" si="6"/>
         <v>429502.78</v>
       </c>
       <c r="G423" s="9" t="s">
@@ -17650,7 +17653,7 @@
         <v>2940</v>
       </c>
       <c r="F424" s="3">
-        <f>+F423+E424</f>
+        <f t="shared" si="6"/>
         <v>432442.78</v>
       </c>
       <c r="G424" s="2" t="s">
@@ -17686,7 +17689,7 @@
         <v>595</v>
       </c>
       <c r="F425" s="3">
-        <f>+F424+E425</f>
+        <f t="shared" si="6"/>
         <v>433037.78</v>
       </c>
       <c r="G425" s="9" t="s">
@@ -17722,7 +17725,7 @@
         <v>1280</v>
       </c>
       <c r="F426" s="3">
-        <f>+F425+E426</f>
+        <f t="shared" si="6"/>
         <v>434317.78</v>
       </c>
       <c r="G426" s="2" t="s">
@@ -17758,7 +17761,7 @@
         <v>2520</v>
       </c>
       <c r="F427" s="3">
-        <f>+F426+E427</f>
+        <f t="shared" si="6"/>
         <v>436837.78</v>
       </c>
       <c r="G427" s="9" t="s">
@@ -17794,7 +17797,7 @@
         <v>2520</v>
       </c>
       <c r="F428" s="3">
-        <f>+F427+E428</f>
+        <f t="shared" si="6"/>
         <v>439357.78</v>
       </c>
       <c r="G428" s="2" t="s">
@@ -17830,7 +17833,7 @@
         <v>723</v>
       </c>
       <c r="F429" s="3">
-        <f>+F428+E429</f>
+        <f t="shared" si="6"/>
         <v>440080.78</v>
       </c>
       <c r="G429" s="9" t="s">
@@ -17866,7 +17869,7 @@
         <v>420</v>
       </c>
       <c r="F430" s="3">
-        <f>+F429+E430</f>
+        <f t="shared" si="6"/>
         <v>440500.78</v>
       </c>
       <c r="G430" s="2" t="s">
@@ -17902,7 +17905,7 @@
         <v>595</v>
       </c>
       <c r="F431" s="3">
-        <f>+F430+E431</f>
+        <f t="shared" si="6"/>
         <v>441095.78</v>
       </c>
       <c r="G431" s="9" t="s">
@@ -17938,7 +17941,7 @@
         <v>100</v>
       </c>
       <c r="F432" s="3">
-        <f>+F431+E432</f>
+        <f t="shared" si="6"/>
         <v>441195.78</v>
       </c>
       <c r="G432" s="2" t="s">
@@ -17974,7 +17977,7 @@
         <v>1800</v>
       </c>
       <c r="F433" s="3">
-        <f>+F432+E433</f>
+        <f t="shared" si="6"/>
         <v>442995.78</v>
       </c>
       <c r="G433" s="9" t="s">
@@ -18010,7 +18013,7 @@
         <v>2520</v>
       </c>
       <c r="F434" s="3">
-        <f>+F433+E434</f>
+        <f t="shared" si="6"/>
         <v>445515.78</v>
       </c>
       <c r="G434" s="2" t="s">
@@ -18046,7 +18049,7 @@
         <v>595</v>
       </c>
       <c r="F435" s="3">
-        <f>+F434+E435</f>
+        <f t="shared" si="6"/>
         <v>446110.78</v>
       </c>
       <c r="G435" s="9" t="s">
@@ -18082,7 +18085,7 @@
         <v>100</v>
       </c>
       <c r="F436" s="3">
-        <f>+F435+E436</f>
+        <f t="shared" si="6"/>
         <v>446210.78</v>
       </c>
       <c r="G436" s="2" t="s">
@@ -18118,7 +18121,7 @@
         <v>100</v>
       </c>
       <c r="F437" s="3">
-        <f>+F436+E437</f>
+        <f t="shared" si="6"/>
         <v>446310.78</v>
       </c>
       <c r="G437" s="9" t="s">
@@ -18154,7 +18157,7 @@
         <v>420</v>
       </c>
       <c r="F438" s="3">
-        <f>+F437+E438</f>
+        <f t="shared" si="6"/>
         <v>446730.78</v>
       </c>
       <c r="G438" s="2" t="s">
@@ -18190,7 +18193,7 @@
         <v>50</v>
       </c>
       <c r="F439" s="3">
-        <f>+F438+E439</f>
+        <f t="shared" si="6"/>
         <v>446780.78</v>
       </c>
       <c r="G439" s="9" t="s">
@@ -18226,7 +18229,7 @@
         <v>360</v>
       </c>
       <c r="F440" s="3">
-        <f>+F439+E440</f>
+        <f t="shared" si="6"/>
         <v>447140.78</v>
       </c>
       <c r="G440" s="2" t="s">
@@ -18262,7 +18265,7 @@
         <v>420</v>
       </c>
       <c r="F441" s="3">
-        <f>+F440+E441</f>
+        <f t="shared" si="6"/>
         <v>447560.78</v>
       </c>
       <c r="G441" s="9" t="s">
@@ -18298,7 +18301,7 @@
         <v>595</v>
       </c>
       <c r="F442" s="3">
-        <f>+F441+E442</f>
+        <f t="shared" si="6"/>
         <v>448155.78</v>
       </c>
       <c r="G442" s="2" t="s">
@@ -18334,7 +18337,7 @@
         <v>375.37</v>
       </c>
       <c r="F443" s="3">
-        <f>+F442+E443</f>
+        <f t="shared" si="6"/>
         <v>448531.15</v>
       </c>
       <c r="G443" s="9" t="s">
@@ -18370,7 +18373,7 @@
         <v>840</v>
       </c>
       <c r="F444" s="3">
-        <f>+F443+E444</f>
+        <f t="shared" si="6"/>
         <v>449371.15</v>
       </c>
       <c r="G444" s="2" t="s">
@@ -18406,7 +18409,7 @@
         <v>595</v>
       </c>
       <c r="F445" s="3">
-        <f>+F444+E445</f>
+        <f t="shared" si="6"/>
         <v>449966.15</v>
       </c>
       <c r="G445" s="9" t="s">
@@ -18442,7 +18445,7 @@
         <v>360</v>
       </c>
       <c r="F446" s="3">
-        <f>+F445+E446</f>
+        <f t="shared" si="6"/>
         <v>450326.15</v>
       </c>
       <c r="G446" s="2" t="s">
@@ -18478,7 +18481,7 @@
         <v>510</v>
       </c>
       <c r="F447" s="3">
-        <f>+F446+E447</f>
+        <f t="shared" si="6"/>
         <v>450836.15</v>
       </c>
       <c r="G447" s="9" t="s">
@@ -18514,7 +18517,7 @@
         <v>595</v>
       </c>
       <c r="F448" s="3">
-        <f>+F447+E448</f>
+        <f t="shared" si="6"/>
         <v>451431.15</v>
       </c>
       <c r="G448" s="2" t="s">
@@ -18550,7 +18553,7 @@
         <v>320</v>
       </c>
       <c r="F449" s="3">
-        <f>+F448+E449</f>
+        <f t="shared" si="6"/>
         <v>451751.15</v>
       </c>
       <c r="G449" s="9" t="s">
@@ -18586,7 +18589,7 @@
         <v>105</v>
       </c>
       <c r="F450" s="3">
-        <f>+F449+E450</f>
+        <f t="shared" ref="F450:F513" si="7">+F449+E450</f>
         <v>451856.15</v>
       </c>
       <c r="G450" s="2" t="s">
@@ -18622,7 +18625,7 @@
         <v>350</v>
       </c>
       <c r="F451" s="3">
-        <f>+F450+E451</f>
+        <f t="shared" si="7"/>
         <v>452206.15</v>
       </c>
       <c r="G451" s="9" t="s">
@@ -18658,7 +18661,7 @@
         <v>2452.11</v>
       </c>
       <c r="F452" s="3">
-        <f>+F451+E452</f>
+        <f t="shared" si="7"/>
         <v>454658.26</v>
       </c>
       <c r="G452" s="2" t="s">
@@ -18694,7 +18697,7 @@
         <v>2520</v>
       </c>
       <c r="F453" s="3">
-        <f>+F452+E453</f>
+        <f t="shared" si="7"/>
         <v>457178.26</v>
       </c>
       <c r="G453" s="9" t="s">
@@ -18730,7 +18733,7 @@
         <v>595</v>
       </c>
       <c r="F454" s="3">
-        <f>+F453+E454</f>
+        <f t="shared" si="7"/>
         <v>457773.26</v>
       </c>
       <c r="G454" s="2" t="s">
@@ -18766,7 +18769,7 @@
         <v>595</v>
       </c>
       <c r="F455" s="3">
-        <f>+F454+E455</f>
+        <f t="shared" si="7"/>
         <v>458368.26</v>
       </c>
       <c r="G455" s="9" t="s">
@@ -18802,7 +18805,7 @@
         <v>385</v>
       </c>
       <c r="F456" s="3">
-        <f>+F455+E456</f>
+        <f t="shared" si="7"/>
         <v>458753.26</v>
       </c>
       <c r="G456" s="2" t="s">
@@ -18838,7 +18841,7 @@
         <v>420</v>
       </c>
       <c r="F457" s="3">
-        <f>+F456+E457</f>
+        <f t="shared" si="7"/>
         <v>459173.26</v>
       </c>
       <c r="G457" s="9" t="s">
@@ -18874,7 +18877,7 @@
         <v>320</v>
       </c>
       <c r="F458" s="3">
-        <f>+F457+E458</f>
+        <f t="shared" si="7"/>
         <v>459493.26</v>
       </c>
       <c r="G458" s="2" t="s">
@@ -18910,7 +18913,7 @@
         <v>350</v>
       </c>
       <c r="F459" s="3">
-        <f>+F458+E459</f>
+        <f t="shared" si="7"/>
         <v>459843.26</v>
       </c>
       <c r="G459" s="9" t="s">
@@ -18946,7 +18949,7 @@
         <v>595</v>
       </c>
       <c r="F460" s="3">
-        <f>+F459+E460</f>
+        <f t="shared" si="7"/>
         <v>460438.26</v>
       </c>
       <c r="G460" s="2" t="s">
@@ -18982,7 +18985,7 @@
         <v>595</v>
       </c>
       <c r="F461" s="3">
-        <f>+F460+E461</f>
+        <f t="shared" si="7"/>
         <v>461033.26</v>
       </c>
       <c r="G461" s="9" t="s">
@@ -19018,7 +19021,7 @@
         <v>595</v>
       </c>
       <c r="F462" s="3">
-        <f>+F461+E462</f>
+        <f t="shared" si="7"/>
         <v>461628.26</v>
       </c>
       <c r="G462" s="2" t="s">
@@ -19054,7 +19057,7 @@
         <v>510</v>
       </c>
       <c r="F463" s="3">
-        <f>+F462+E463</f>
+        <f t="shared" si="7"/>
         <v>462138.26</v>
       </c>
       <c r="G463" s="9" t="s">
@@ -19090,7 +19093,7 @@
         <v>360</v>
       </c>
       <c r="F464" s="3">
-        <f>+F463+E464</f>
+        <f t="shared" si="7"/>
         <v>462498.26</v>
       </c>
       <c r="G464" s="2" t="s">
@@ -19126,7 +19129,7 @@
         <v>595</v>
       </c>
       <c r="F465" s="3">
-        <f>+F464+E465</f>
+        <f t="shared" si="7"/>
         <v>463093.26</v>
       </c>
       <c r="G465" s="9" t="s">
@@ -19162,7 +19165,7 @@
         <v>600</v>
       </c>
       <c r="F466" s="3">
-        <f>+F465+E466</f>
+        <f t="shared" si="7"/>
         <v>463693.26</v>
       </c>
       <c r="G466" s="2" t="s">
@@ -19198,7 +19201,7 @@
         <v>595</v>
       </c>
       <c r="F467" s="3">
-        <f>+F466+E467</f>
+        <f t="shared" si="7"/>
         <v>464288.26</v>
       </c>
       <c r="G467" s="9" t="s">
@@ -19234,7 +19237,7 @@
         <v>595</v>
       </c>
       <c r="F468" s="3">
-        <f>+F467+E468</f>
+        <f t="shared" si="7"/>
         <v>464883.26</v>
       </c>
       <c r="G468" s="2" t="s">
@@ -19270,7 +19273,7 @@
         <v>4600</v>
       </c>
       <c r="F469" s="3">
-        <f>+F468+E469</f>
+        <f t="shared" si="7"/>
         <v>469483.26</v>
       </c>
       <c r="G469" s="9" t="s">
@@ -19306,7 +19309,7 @@
         <v>595</v>
       </c>
       <c r="F470" s="3">
-        <f>+F469+E470</f>
+        <f t="shared" si="7"/>
         <v>470078.26</v>
       </c>
       <c r="G470" s="2" t="s">
@@ -19342,7 +19345,7 @@
         <v>2300</v>
       </c>
       <c r="F471" s="3">
-        <f>+F470+E471</f>
+        <f t="shared" si="7"/>
         <v>472378.26</v>
       </c>
       <c r="G471" s="9" t="s">
@@ -19378,7 +19381,7 @@
         <v>595</v>
       </c>
       <c r="F472" s="3">
-        <f>+F471+E472</f>
+        <f t="shared" si="7"/>
         <v>472973.26</v>
       </c>
       <c r="G472" s="2" t="s">
@@ -19414,7 +19417,7 @@
         <v>595</v>
       </c>
       <c r="F473" s="3">
-        <f>+F472+E473</f>
+        <f t="shared" si="7"/>
         <v>473568.26</v>
       </c>
       <c r="G473" s="9" t="s">
@@ -19450,7 +19453,7 @@
         <v>350</v>
       </c>
       <c r="F474" s="3">
-        <f>+F473+E474</f>
+        <f t="shared" si="7"/>
         <v>473918.26</v>
       </c>
       <c r="G474" s="2" t="s">
@@ -19486,7 +19489,7 @@
         <v>136.5</v>
       </c>
       <c r="F475" s="3">
-        <f>+F474+E475</f>
+        <f t="shared" si="7"/>
         <v>474054.76</v>
       </c>
       <c r="G475" s="9" t="s">
@@ -19522,7 +19525,7 @@
         <v>595</v>
       </c>
       <c r="F476" s="3">
-        <f>+F475+E476</f>
+        <f t="shared" si="7"/>
         <v>474649.76</v>
       </c>
       <c r="G476" s="2" t="s">
@@ -19558,7 +19561,7 @@
         <v>595</v>
       </c>
       <c r="F477" s="3">
-        <f>+F476+E477</f>
+        <f t="shared" si="7"/>
         <v>475244.76</v>
       </c>
       <c r="G477" s="9" t="s">
@@ -19594,7 +19597,7 @@
         <v>595</v>
       </c>
       <c r="F478" s="3">
-        <f>+F477+E478</f>
+        <f t="shared" si="7"/>
         <v>475839.76</v>
       </c>
       <c r="G478" s="2" t="s">
@@ -19630,7 +19633,7 @@
         <v>595</v>
       </c>
       <c r="F479" s="3">
-        <f>+F478+E479</f>
+        <f t="shared" si="7"/>
         <v>476434.76</v>
       </c>
       <c r="G479" s="9" t="s">
@@ -19666,7 +19669,7 @@
         <v>350</v>
       </c>
       <c r="F480" s="3">
-        <f>+F479+E480</f>
+        <f t="shared" si="7"/>
         <v>476784.76</v>
       </c>
       <c r="G480" s="2" t="s">
@@ -19702,7 +19705,7 @@
         <v>840</v>
       </c>
       <c r="F481" s="3">
-        <f>+F480+E481</f>
+        <f t="shared" si="7"/>
         <v>477624.76</v>
       </c>
       <c r="G481" s="9" t="s">
@@ -19738,7 +19741,7 @@
         <v>385</v>
       </c>
       <c r="F482" s="3">
-        <f>+F481+E482</f>
+        <f t="shared" si="7"/>
         <v>478009.76</v>
       </c>
       <c r="G482" s="2" t="s">
@@ -19774,7 +19777,7 @@
         <v>600</v>
       </c>
       <c r="F483" s="3">
-        <f>+F482+E483</f>
+        <f t="shared" si="7"/>
         <v>478609.76</v>
       </c>
       <c r="G483" s="9" t="s">
@@ -19810,7 +19813,7 @@
         <v>350</v>
       </c>
       <c r="F484" s="3">
-        <f>+F483+E484</f>
+        <f t="shared" si="7"/>
         <v>478959.76</v>
       </c>
       <c r="G484" s="2" t="s">
@@ -19846,7 +19849,7 @@
         <v>350</v>
       </c>
       <c r="F485" s="3">
-        <f>+F484+E485</f>
+        <f t="shared" si="7"/>
         <v>479309.76</v>
       </c>
       <c r="G485" s="9" t="s">
@@ -19882,7 +19885,7 @@
         <v>595</v>
       </c>
       <c r="F486" s="3">
-        <f>+F485+E486</f>
+        <f t="shared" si="7"/>
         <v>479904.76</v>
       </c>
       <c r="G486" s="2" t="s">
@@ -19918,7 +19921,7 @@
         <v>37120</v>
       </c>
       <c r="F487" s="3">
-        <f>+F486+E487</f>
+        <f t="shared" si="7"/>
         <v>517024.76</v>
       </c>
       <c r="G487" s="9" t="s">
@@ -19954,7 +19957,7 @@
         <v>1190</v>
       </c>
       <c r="F488" s="3">
-        <f>+F487+E488</f>
+        <f t="shared" si="7"/>
         <v>518214.76</v>
       </c>
       <c r="G488" s="2" t="s">
@@ -19990,7 +19993,7 @@
         <v>840</v>
       </c>
       <c r="F489" s="3">
-        <f>+F488+E489</f>
+        <f t="shared" si="7"/>
         <v>519054.76</v>
       </c>
       <c r="G489" s="9" t="s">
@@ -20026,7 +20029,7 @@
         <v>300</v>
       </c>
       <c r="F490" s="3">
-        <f>+F489+E490</f>
+        <f t="shared" si="7"/>
         <v>519354.76</v>
       </c>
       <c r="G490" s="2" t="s">
@@ -20062,7 +20065,7 @@
         <v>840</v>
       </c>
       <c r="F491" s="3">
-        <f>+F490+E491</f>
+        <f t="shared" si="7"/>
         <v>520194.76</v>
       </c>
       <c r="G491" s="9" t="s">
@@ -20098,7 +20101,7 @@
         <v>350</v>
       </c>
       <c r="F492" s="3">
-        <f>+F491+E492</f>
+        <f t="shared" si="7"/>
         <v>520544.76</v>
       </c>
       <c r="G492" s="2" t="s">
@@ -20134,7 +20137,7 @@
         <v>1060</v>
       </c>
       <c r="F493" s="3">
-        <f>+F492+E493</f>
+        <f t="shared" si="7"/>
         <v>521604.76</v>
       </c>
       <c r="G493" s="9" t="s">
@@ -20170,7 +20173,7 @@
         <v>350</v>
       </c>
       <c r="F494" s="3">
-        <f>+F493+E494</f>
+        <f t="shared" si="7"/>
         <v>521954.76</v>
       </c>
       <c r="G494" s="2" t="s">
@@ -20206,7 +20209,7 @@
         <v>350</v>
       </c>
       <c r="F495" s="3">
-        <f>+F494+E495</f>
+        <f t="shared" si="7"/>
         <v>522304.76</v>
       </c>
       <c r="G495" s="9" t="s">
@@ -20242,7 +20245,7 @@
         <v>595</v>
       </c>
       <c r="F496" s="3">
-        <f>+F495+E496</f>
+        <f t="shared" si="7"/>
         <v>522899.76</v>
       </c>
       <c r="G496" s="2" t="s">
@@ -20278,7 +20281,7 @@
         <v>595</v>
       </c>
       <c r="F497" s="3">
-        <f>+F496+E497</f>
+        <f t="shared" si="7"/>
         <v>523494.76</v>
       </c>
       <c r="G497" s="9" t="s">
@@ -20314,7 +20317,7 @@
         <v>350</v>
       </c>
       <c r="F498" s="3">
-        <f>+F497+E498</f>
+        <f t="shared" si="7"/>
         <v>523844.76</v>
       </c>
       <c r="G498" s="2" t="s">
@@ -20350,7 +20353,7 @@
         <v>360</v>
       </c>
       <c r="F499" s="3">
-        <f>+F498+E499</f>
+        <f t="shared" si="7"/>
         <v>524204.76</v>
       </c>
       <c r="G499" s="9" t="s">
@@ -20386,7 +20389,7 @@
         <v>850</v>
       </c>
       <c r="F500" s="3">
-        <f>+F499+E500</f>
+        <f t="shared" si="7"/>
         <v>525054.76</v>
       </c>
       <c r="G500" s="2" t="s">
@@ -20422,7 +20425,7 @@
         <v>595</v>
       </c>
       <c r="F501" s="3">
-        <f>+F500+E501</f>
+        <f t="shared" si="7"/>
         <v>525649.76</v>
       </c>
       <c r="G501" s="9" t="s">
@@ -20458,7 +20461,7 @@
         <v>350</v>
       </c>
       <c r="F502" s="3">
-        <f>+F501+E502</f>
+        <f t="shared" si="7"/>
         <v>525999.76</v>
       </c>
       <c r="G502" s="2" t="s">
@@ -20494,7 +20497,7 @@
         <v>595</v>
       </c>
       <c r="F503" s="3">
-        <f>+F502+E503</f>
+        <f t="shared" si="7"/>
         <v>526594.76</v>
       </c>
       <c r="G503" s="9" t="s">
@@ -20530,7 +20533,7 @@
         <v>595</v>
       </c>
       <c r="F504" s="3">
-        <f>+F503+E504</f>
+        <f t="shared" si="7"/>
         <v>527189.76000000001</v>
       </c>
       <c r="G504" s="2" t="s">
@@ -20566,7 +20569,7 @@
         <v>360</v>
       </c>
       <c r="F505" s="3">
-        <f>+F504+E505</f>
+        <f t="shared" si="7"/>
         <v>527549.76</v>
       </c>
       <c r="G505" s="9" t="s">
@@ -20602,7 +20605,7 @@
         <v>840</v>
       </c>
       <c r="F506" s="3">
-        <f>+F505+E506</f>
+        <f t="shared" si="7"/>
         <v>528389.76</v>
       </c>
       <c r="G506" s="2" t="s">
@@ -20638,7 +20641,7 @@
         <v>385</v>
       </c>
       <c r="F507" s="3">
-        <f>+F506+E507</f>
+        <f t="shared" si="7"/>
         <v>528774.76</v>
       </c>
       <c r="G507" s="9" t="s">
@@ -20674,7 +20677,7 @@
         <v>350</v>
       </c>
       <c r="F508" s="3">
-        <f>+F507+E508</f>
+        <f t="shared" si="7"/>
         <v>529124.76</v>
       </c>
       <c r="G508" s="2" t="s">
@@ -20710,7 +20713,7 @@
         <v>2940</v>
       </c>
       <c r="F509" s="3">
-        <f>+F508+E509</f>
+        <f t="shared" si="7"/>
         <v>532064.76</v>
       </c>
       <c r="G509" s="9" t="s">
@@ -20746,7 +20749,7 @@
         <v>595</v>
       </c>
       <c r="F510" s="3">
-        <f>+F509+E510</f>
+        <f t="shared" si="7"/>
         <v>532659.76</v>
       </c>
       <c r="G510" s="2" t="s">
@@ -20782,7 +20785,7 @@
         <v>1020</v>
       </c>
       <c r="F511" s="3">
-        <f>+F510+E511</f>
+        <f t="shared" si="7"/>
         <v>533679.76</v>
       </c>
       <c r="G511" s="9" t="s">
@@ -20818,7 +20821,7 @@
         <v>100</v>
       </c>
       <c r="F512" s="3">
-        <f>+F511+E512</f>
+        <f t="shared" si="7"/>
         <v>533779.76</v>
       </c>
       <c r="G512" s="2" t="s">
@@ -20854,7 +20857,7 @@
         <v>1020</v>
       </c>
       <c r="F513" s="3">
-        <f>+F512+E513</f>
+        <f t="shared" si="7"/>
         <v>534799.76</v>
       </c>
       <c r="G513" s="9" t="s">
@@ -20890,7 +20893,7 @@
         <v>360</v>
       </c>
       <c r="F514" s="3">
-        <f>+F513+E514</f>
+        <f t="shared" ref="F514:F577" si="8">+F513+E514</f>
         <v>535159.76</v>
       </c>
       <c r="G514" s="2" t="s">
@@ -20926,7 +20929,7 @@
         <v>595</v>
       </c>
       <c r="F515" s="3">
-        <f>+F514+E515</f>
+        <f t="shared" si="8"/>
         <v>535754.76</v>
       </c>
       <c r="G515" s="9" t="s">
@@ -20962,7 +20965,7 @@
         <v>595</v>
       </c>
       <c r="F516" s="3">
-        <f>+F515+E516</f>
+        <f t="shared" si="8"/>
         <v>536349.76</v>
       </c>
       <c r="G516" s="2" t="s">
@@ -20998,7 +21001,7 @@
         <v>840</v>
       </c>
       <c r="F517" s="3">
-        <f>+F516+E517</f>
+        <f t="shared" si="8"/>
         <v>537189.76</v>
       </c>
       <c r="G517" s="9" t="s">
@@ -21034,7 +21037,7 @@
         <v>300</v>
       </c>
       <c r="F518" s="3">
-        <f>+F517+E518</f>
+        <f t="shared" si="8"/>
         <v>537489.76</v>
       </c>
       <c r="G518" s="2" t="s">
@@ -21070,7 +21073,7 @@
         <v>840</v>
       </c>
       <c r="F519" s="3">
-        <f>+F518+E519</f>
+        <f t="shared" si="8"/>
         <v>538329.76</v>
       </c>
       <c r="G519" s="9" t="s">
@@ -21106,7 +21109,7 @@
         <v>2790</v>
       </c>
       <c r="F520" s="3">
-        <f>+F519+E520</f>
+        <f t="shared" si="8"/>
         <v>541119.76</v>
       </c>
       <c r="G520" s="2" t="s">
@@ -21142,7 +21145,7 @@
         <v>2149.87</v>
       </c>
       <c r="F521" s="3">
-        <f>+F520+E521</f>
+        <f t="shared" si="8"/>
         <v>543269.63</v>
       </c>
       <c r="G521" s="9" t="s">
@@ -21178,7 +21181,7 @@
         <v>595</v>
       </c>
       <c r="F522" s="3">
-        <f>+F521+E522</f>
+        <f t="shared" si="8"/>
         <v>543864.63</v>
       </c>
       <c r="G522" s="2" t="s">
@@ -21214,7 +21217,7 @@
         <v>880</v>
       </c>
       <c r="F523" s="3">
-        <f>+F522+E523</f>
+        <f t="shared" si="8"/>
         <v>544744.63</v>
       </c>
       <c r="G523" s="9" t="s">
@@ -21250,7 +21253,7 @@
         <v>530</v>
       </c>
       <c r="F524" s="3">
-        <f>+F523+E524</f>
+        <f t="shared" si="8"/>
         <v>545274.63</v>
       </c>
       <c r="G524" s="2" t="s">
@@ -21286,7 +21289,7 @@
         <v>530</v>
       </c>
       <c r="F525" s="3">
-        <f>+F524+E525</f>
+        <f t="shared" si="8"/>
         <v>545804.63</v>
       </c>
       <c r="G525" s="9" t="s">
@@ -21322,7 +21325,7 @@
         <v>595</v>
       </c>
       <c r="F526" s="3">
-        <f>+F525+E526</f>
+        <f t="shared" si="8"/>
         <v>546399.63</v>
       </c>
       <c r="G526" s="2" t="s">
@@ -21358,7 +21361,7 @@
         <v>595</v>
       </c>
       <c r="F527" s="3">
-        <f>+F526+E527</f>
+        <f t="shared" si="8"/>
         <v>546994.63</v>
       </c>
       <c r="G527" s="9" t="s">
@@ -21394,7 +21397,7 @@
         <v>595</v>
       </c>
       <c r="F528" s="3">
-        <f>+F527+E528</f>
+        <f t="shared" si="8"/>
         <v>547589.63</v>
       </c>
       <c r="G528" s="2" t="s">
@@ -21430,7 +21433,7 @@
         <v>314</v>
       </c>
       <c r="F529" s="3">
-        <f>+F528+E529</f>
+        <f t="shared" si="8"/>
         <v>547903.63</v>
       </c>
       <c r="G529" s="9" t="s">
@@ -21466,7 +21469,7 @@
         <v>685</v>
       </c>
       <c r="F530" s="3">
-        <f>+F529+E530</f>
+        <f t="shared" si="8"/>
         <v>548588.63</v>
       </c>
       <c r="G530" s="2" t="s">
@@ -21502,7 +21505,7 @@
         <v>2940</v>
       </c>
       <c r="F531" s="3">
-        <f>+F530+E531</f>
+        <f t="shared" si="8"/>
         <v>551528.63</v>
       </c>
       <c r="G531" s="9" t="s">
@@ -21538,7 +21541,7 @@
         <v>595</v>
       </c>
       <c r="F532" s="3">
-        <f>+F531+E532</f>
+        <f t="shared" si="8"/>
         <v>552123.63</v>
       </c>
       <c r="G532" s="2" t="s">
@@ -21574,7 +21577,7 @@
         <v>360</v>
       </c>
       <c r="F533" s="3">
-        <f>+F532+E533</f>
+        <f t="shared" si="8"/>
         <v>552483.63</v>
       </c>
       <c r="G533" s="9" t="s">
@@ -21610,7 +21613,7 @@
         <v>595</v>
       </c>
       <c r="F534" s="3">
-        <f>+F533+E534</f>
+        <f t="shared" si="8"/>
         <v>553078.63</v>
       </c>
       <c r="G534" s="2" t="s">
@@ -21646,7 +21649,7 @@
         <v>595</v>
       </c>
       <c r="F535" s="3">
-        <f>+F534+E535</f>
+        <f t="shared" si="8"/>
         <v>553673.63</v>
       </c>
       <c r="G535" s="9" t="s">
@@ -21682,7 +21685,7 @@
         <v>840</v>
       </c>
       <c r="F536" s="3">
-        <f>+F535+E536</f>
+        <f t="shared" si="8"/>
         <v>554513.63</v>
       </c>
       <c r="G536" s="2" t="s">
@@ -21718,7 +21721,7 @@
         <v>70</v>
       </c>
       <c r="F537" s="3">
-        <f>+F536+E537</f>
+        <f t="shared" si="8"/>
         <v>554583.63</v>
       </c>
       <c r="G537" s="9" t="s">
@@ -21754,7 +21757,7 @@
         <v>360</v>
       </c>
       <c r="F538" s="3">
-        <f>+F537+E538</f>
+        <f t="shared" si="8"/>
         <v>554943.63</v>
       </c>
       <c r="G538" s="2" t="s">
@@ -21790,7 +21793,7 @@
         <v>595</v>
       </c>
       <c r="F539" s="3">
-        <f>+F538+E539</f>
+        <f t="shared" si="8"/>
         <v>555538.63</v>
       </c>
       <c r="G539" s="9" t="s">
@@ -21826,7 +21829,7 @@
         <v>360</v>
       </c>
       <c r="F540" s="3">
-        <f>+F539+E540</f>
+        <f t="shared" si="8"/>
         <v>555898.63</v>
       </c>
       <c r="G540" s="2" t="s">
@@ -21862,7 +21865,7 @@
         <v>1600</v>
       </c>
       <c r="F541" s="3">
-        <f>+F540+E541</f>
+        <f t="shared" si="8"/>
         <v>557498.63</v>
       </c>
       <c r="G541" s="9" t="s">
@@ -21898,7 +21901,7 @@
         <v>385</v>
       </c>
       <c r="F542" s="3">
-        <f>+F541+E542</f>
+        <f t="shared" si="8"/>
         <v>557883.63</v>
       </c>
       <c r="G542" s="2" t="s">
@@ -21934,7 +21937,7 @@
         <v>70</v>
       </c>
       <c r="F543" s="3">
-        <f>+F542+E543</f>
+        <f t="shared" si="8"/>
         <v>557953.63</v>
       </c>
       <c r="G543" s="9" t="s">
@@ -21970,7 +21973,7 @@
         <v>385</v>
       </c>
       <c r="F544" s="3">
-        <f>+F543+E544</f>
+        <f t="shared" si="8"/>
         <v>558338.63</v>
       </c>
       <c r="G544" s="2" t="s">
@@ -22006,7 +22009,7 @@
         <v>595</v>
       </c>
       <c r="F545" s="3">
-        <f>+F544+E545</f>
+        <f t="shared" si="8"/>
         <v>558933.63</v>
       </c>
       <c r="G545" s="9" t="s">
@@ -22042,7 +22045,7 @@
         <v>840</v>
       </c>
       <c r="F546" s="3">
-        <f>+F545+E546</f>
+        <f t="shared" si="8"/>
         <v>559773.63</v>
       </c>
       <c r="G546" s="2" t="s">
@@ -22078,7 +22081,7 @@
         <v>186</v>
       </c>
       <c r="F547" s="3">
-        <f>+F546+E547</f>
+        <f t="shared" si="8"/>
         <v>559959.63</v>
       </c>
       <c r="G547" s="9" t="s">
@@ -22114,7 +22117,7 @@
         <v>960</v>
       </c>
       <c r="F548" s="3">
-        <f>+F547+E548</f>
+        <f t="shared" si="8"/>
         <v>560919.63</v>
       </c>
       <c r="G548" s="2" t="s">
@@ -22150,7 +22153,7 @@
         <v>595</v>
       </c>
       <c r="F549" s="3">
-        <f>+F548+E549</f>
+        <f t="shared" si="8"/>
         <v>561514.63</v>
       </c>
       <c r="G549" s="9" t="s">
@@ -22186,7 +22189,7 @@
         <v>360</v>
       </c>
       <c r="F550" s="3">
-        <f>+F549+E550</f>
+        <f t="shared" si="8"/>
         <v>561874.63</v>
       </c>
       <c r="G550" s="2" t="s">
@@ -22222,7 +22225,7 @@
         <v>385</v>
       </c>
       <c r="F551" s="3">
-        <f>+F550+E551</f>
+        <f t="shared" si="8"/>
         <v>562259.63</v>
       </c>
       <c r="G551" s="9" t="s">
@@ -22258,7 +22261,7 @@
         <v>360</v>
       </c>
       <c r="F552" s="3">
-        <f>+F551+E552</f>
+        <f t="shared" si="8"/>
         <v>562619.63</v>
       </c>
       <c r="G552" s="2" t="s">
@@ -22294,7 +22297,7 @@
         <v>595</v>
       </c>
       <c r="F553" s="3">
-        <f>+F552+E553</f>
+        <f t="shared" si="8"/>
         <v>563214.63</v>
       </c>
       <c r="G553" s="9" t="s">
@@ -22330,7 +22333,7 @@
         <v>840</v>
       </c>
       <c r="F554" s="3">
-        <f>+F553+E554</f>
+        <f t="shared" si="8"/>
         <v>564054.63</v>
       </c>
       <c r="G554" s="2" t="s">
@@ -22366,7 +22369,7 @@
         <v>880</v>
       </c>
       <c r="F555" s="3">
-        <f>+F554+E555</f>
+        <f t="shared" si="8"/>
         <v>564934.63</v>
       </c>
       <c r="G555" s="9" t="s">
@@ -22402,7 +22405,7 @@
         <v>880</v>
       </c>
       <c r="F556" s="3">
-        <f>+F555+E556</f>
+        <f t="shared" si="8"/>
         <v>565814.63</v>
       </c>
       <c r="G556" s="2" t="s">
@@ -22438,7 +22441,7 @@
         <v>2500</v>
       </c>
       <c r="F557" s="3">
-        <f>+F556+E557</f>
+        <f t="shared" si="8"/>
         <v>568314.63</v>
       </c>
       <c r="G557" s="9" t="s">
@@ -22474,7 +22477,7 @@
         <v>385</v>
       </c>
       <c r="F558" s="3">
-        <f>+F557+E558</f>
+        <f t="shared" si="8"/>
         <v>568699.63</v>
       </c>
       <c r="G558" s="2" t="s">
@@ -22510,7 +22513,7 @@
         <v>320</v>
       </c>
       <c r="F559" s="3">
-        <f>+F558+E559</f>
+        <f t="shared" si="8"/>
         <v>569019.63</v>
       </c>
       <c r="G559" s="2" t="s">
@@ -22546,7 +22549,7 @@
         <v>419.25</v>
       </c>
       <c r="F560" s="3">
-        <f>+F559+E560</f>
+        <f t="shared" si="8"/>
         <v>569438.88</v>
       </c>
       <c r="G560" s="9" t="s">
@@ -22582,7 +22585,7 @@
         <v>2024</v>
       </c>
       <c r="F561" s="3">
-        <f>+F560+E561</f>
+        <f t="shared" si="8"/>
         <v>571462.88</v>
       </c>
       <c r="G561" s="2" t="s">
@@ -22618,7 +22621,7 @@
         <v>595</v>
       </c>
       <c r="F562" s="3">
-        <f>+F561+E562</f>
+        <f t="shared" si="8"/>
         <v>572057.88</v>
       </c>
       <c r="G562" s="9" t="s">
@@ -22654,7 +22657,7 @@
         <v>2970</v>
       </c>
       <c r="F563" s="3">
-        <f>+F562+E563</f>
+        <f t="shared" si="8"/>
         <v>575027.88</v>
       </c>
       <c r="G563" s="2" t="s">
@@ -22690,7 +22693,7 @@
         <v>385</v>
       </c>
       <c r="F564" s="3">
-        <f>+F563+E564</f>
+        <f t="shared" si="8"/>
         <v>575412.88</v>
       </c>
       <c r="G564" s="9" t="s">
@@ -22726,7 +22729,7 @@
         <v>360</v>
       </c>
       <c r="F565" s="3">
-        <f>+F564+E565</f>
+        <f t="shared" si="8"/>
         <v>575772.88</v>
       </c>
       <c r="G565" s="2" t="s">
@@ -22762,7 +22765,7 @@
         <v>3600</v>
       </c>
       <c r="F566" s="3">
-        <f>+F565+E566</f>
+        <f t="shared" si="8"/>
         <v>579372.88</v>
       </c>
       <c r="G566" s="9" t="s">
@@ -22798,7 +22801,7 @@
         <v>280</v>
       </c>
       <c r="F567" s="3">
-        <f>+F566+E567</f>
+        <f t="shared" si="8"/>
         <v>579652.88</v>
       </c>
       <c r="G567" s="2" t="s">
@@ -22834,7 +22837,7 @@
         <v>350</v>
       </c>
       <c r="F568" s="3">
-        <f>+F567+E568</f>
+        <f t="shared" si="8"/>
         <v>580002.88</v>
       </c>
       <c r="G568" s="9" t="s">
@@ -22870,7 +22873,7 @@
         <v>350</v>
       </c>
       <c r="F569" s="3">
-        <f>+F568+E569</f>
+        <f t="shared" si="8"/>
         <v>580352.88</v>
       </c>
       <c r="G569" s="2" t="s">
@@ -22906,7 +22909,7 @@
         <v>840</v>
       </c>
       <c r="F570" s="3">
-        <f>+F569+E570</f>
+        <f t="shared" si="8"/>
         <v>581192.88</v>
       </c>
       <c r="G570" s="9" t="s">
@@ -22942,7 +22945,7 @@
         <v>350</v>
       </c>
       <c r="F571" s="3">
-        <f>+F570+E571</f>
+        <f t="shared" si="8"/>
         <v>581542.88</v>
       </c>
       <c r="G571" s="2" t="s">
@@ -22978,7 +22981,7 @@
         <v>360</v>
       </c>
       <c r="F572" s="3">
-        <f>+F571+E572</f>
+        <f t="shared" si="8"/>
         <v>581902.88</v>
       </c>
       <c r="G572" s="9" t="s">
@@ -23014,7 +23017,7 @@
         <v>360</v>
       </c>
       <c r="F573" s="3">
-        <f>+F572+E573</f>
+        <f t="shared" si="8"/>
         <v>582262.88</v>
       </c>
       <c r="G573" s="2" t="s">
@@ -23050,7 +23053,7 @@
         <v>980</v>
       </c>
       <c r="F574" s="3">
-        <f>+F573+E574</f>
+        <f t="shared" si="8"/>
         <v>583242.88</v>
       </c>
       <c r="G574" s="9" t="s">
@@ -23086,7 +23089,7 @@
         <v>200</v>
       </c>
       <c r="F575" s="3">
-        <f>+F574+E575</f>
+        <f t="shared" si="8"/>
         <v>583442.88</v>
       </c>
       <c r="G575" s="2" t="s">
@@ -23122,7 +23125,7 @@
         <v>1250</v>
       </c>
       <c r="F576" s="3">
-        <f>+F575+E576</f>
+        <f t="shared" si="8"/>
         <v>584692.88</v>
       </c>
       <c r="G576" s="9" t="s">
@@ -23158,7 +23161,7 @@
         <v>360</v>
       </c>
       <c r="F577" s="3">
-        <f>+F576+E577</f>
+        <f t="shared" si="8"/>
         <v>585052.88</v>
       </c>
       <c r="G577" s="2" t="s">
@@ -23194,7 +23197,7 @@
         <v>595</v>
       </c>
       <c r="F578" s="3">
-        <f>+F577+E578</f>
+        <f t="shared" ref="F578:F641" si="9">+F577+E578</f>
         <v>585647.88</v>
       </c>
       <c r="G578" s="9" t="s">
@@ -23230,7 +23233,7 @@
         <v>385</v>
       </c>
       <c r="F579" s="3">
-        <f>+F578+E579</f>
+        <f t="shared" si="9"/>
         <v>586032.88</v>
       </c>
       <c r="G579" s="2" t="s">
@@ -23266,7 +23269,7 @@
         <v>880</v>
       </c>
       <c r="F580" s="3">
-        <f>+F579+E580</f>
+        <f t="shared" si="9"/>
         <v>586912.88</v>
       </c>
       <c r="G580" s="9" t="s">
@@ -23302,7 +23305,7 @@
         <v>385</v>
       </c>
       <c r="F581" s="3">
-        <f>+F580+E581</f>
+        <f t="shared" si="9"/>
         <v>587297.88</v>
       </c>
       <c r="G581" s="2" t="s">
@@ -23338,7 +23341,7 @@
         <v>2520</v>
       </c>
       <c r="F582" s="3">
-        <f>+F581+E582</f>
+        <f t="shared" si="9"/>
         <v>589817.88</v>
       </c>
       <c r="G582" s="9" t="s">
@@ -23374,7 +23377,7 @@
         <v>79</v>
       </c>
       <c r="F583" s="3">
-        <f>+F582+E583</f>
+        <f t="shared" si="9"/>
         <v>589896.88</v>
       </c>
       <c r="G583" s="2" t="s">
@@ -23410,7 +23413,7 @@
         <v>700</v>
       </c>
       <c r="F584" s="3">
-        <f>+F583+E584</f>
+        <f t="shared" si="9"/>
         <v>590596.88</v>
       </c>
       <c r="G584" s="9" t="s">
@@ -23446,7 +23449,7 @@
         <v>300</v>
       </c>
       <c r="F585" s="3">
-        <f>+F584+E585</f>
+        <f t="shared" si="9"/>
         <v>590896.88</v>
       </c>
       <c r="G585" s="2" t="s">
@@ -23482,7 +23485,7 @@
         <v>105</v>
       </c>
       <c r="F586" s="3">
-        <f>+F585+E586</f>
+        <f t="shared" si="9"/>
         <v>591001.88</v>
       </c>
       <c r="G586" s="9" t="s">
@@ -23518,7 +23521,7 @@
         <v>360</v>
       </c>
       <c r="F587" s="3">
-        <f>+F586+E587</f>
+        <f t="shared" si="9"/>
         <v>591361.88</v>
       </c>
       <c r="G587" s="2" t="s">
@@ -23554,7 +23557,7 @@
         <v>595</v>
       </c>
       <c r="F588" s="3">
-        <f>+F587+E588</f>
+        <f t="shared" si="9"/>
         <v>591956.88</v>
       </c>
       <c r="G588" s="9" t="s">
@@ -23590,7 +23593,7 @@
         <v>4620</v>
       </c>
       <c r="F589" s="3">
-        <f>+F588+E589</f>
+        <f t="shared" si="9"/>
         <v>596576.88</v>
       </c>
       <c r="G589" s="2" t="s">
@@ -23626,7 +23629,7 @@
         <v>510</v>
       </c>
       <c r="F590" s="3">
-        <f>+F589+E590</f>
+        <f t="shared" si="9"/>
         <v>597086.88</v>
       </c>
       <c r="G590" s="9" t="s">
@@ -23662,7 +23665,7 @@
         <v>360</v>
       </c>
       <c r="F591" s="3">
-        <f>+F590+E591</f>
+        <f t="shared" si="9"/>
         <v>597446.88</v>
       </c>
       <c r="G591" s="2" t="s">
@@ -23698,7 +23701,7 @@
         <v>280</v>
       </c>
       <c r="F592" s="3">
-        <f>+F591+E592</f>
+        <f t="shared" si="9"/>
         <v>597726.88</v>
       </c>
       <c r="G592" s="9" t="s">
@@ -23734,7 +23737,7 @@
         <v>360</v>
       </c>
       <c r="F593" s="3">
-        <f>+F592+E593</f>
+        <f t="shared" si="9"/>
         <v>598086.88</v>
       </c>
       <c r="G593" s="2" t="s">
@@ -23770,7 +23773,7 @@
         <v>360</v>
       </c>
       <c r="F594" s="3">
-        <f>+F593+E594</f>
+        <f t="shared" si="9"/>
         <v>598446.88</v>
       </c>
       <c r="G594" s="9" t="s">
@@ -23806,7 +23809,7 @@
         <v>360</v>
       </c>
       <c r="F595" s="3">
-        <f>+F594+E595</f>
+        <f t="shared" si="9"/>
         <v>598806.88</v>
       </c>
       <c r="G595" s="2" t="s">
@@ -23842,7 +23845,7 @@
         <v>385</v>
       </c>
       <c r="F596" s="3">
-        <f>+F595+E596</f>
+        <f t="shared" si="9"/>
         <v>599191.88</v>
       </c>
       <c r="G596" s="9" t="s">
@@ -23878,7 +23881,7 @@
         <v>385</v>
       </c>
       <c r="F597" s="3">
-        <f>+F596+E597</f>
+        <f t="shared" si="9"/>
         <v>599576.88</v>
       </c>
       <c r="G597" s="2" t="s">
@@ -23914,7 +23917,7 @@
         <v>360</v>
       </c>
       <c r="F598" s="3">
-        <f>+F597+E598</f>
+        <f t="shared" si="9"/>
         <v>599936.88</v>
       </c>
       <c r="G598" s="9" t="s">
@@ -23950,7 +23953,7 @@
         <v>385</v>
       </c>
       <c r="F599" s="3">
-        <f>+F598+E599</f>
+        <f t="shared" si="9"/>
         <v>600321.88</v>
       </c>
       <c r="G599" s="2" t="s">
@@ -23986,7 +23989,7 @@
         <v>1020</v>
       </c>
       <c r="F600" s="3">
-        <f>+F599+E600</f>
+        <f t="shared" si="9"/>
         <v>601341.88</v>
       </c>
       <c r="G600" s="9" t="s">
@@ -24022,7 +24025,7 @@
         <v>1020</v>
       </c>
       <c r="F601" s="3">
-        <f>+F600+E601</f>
+        <f t="shared" si="9"/>
         <v>602361.88</v>
       </c>
       <c r="G601" s="2" t="s">
@@ -24058,7 +24061,7 @@
         <v>360</v>
       </c>
       <c r="F602" s="3">
-        <f>+F601+E602</f>
+        <f t="shared" si="9"/>
         <v>602721.88</v>
       </c>
       <c r="G602" s="9" t="s">
@@ -24094,7 +24097,7 @@
         <v>360</v>
       </c>
       <c r="F603" s="3">
-        <f>+F602+E603</f>
+        <f t="shared" si="9"/>
         <v>603081.88</v>
       </c>
       <c r="G603" s="2" t="s">
@@ -24130,7 +24133,7 @@
         <v>375.37</v>
       </c>
       <c r="F604" s="3">
-        <f>+F603+E604</f>
+        <f t="shared" si="9"/>
         <v>603457.25</v>
       </c>
       <c r="G604" s="9" t="s">
@@ -24166,7 +24169,7 @@
         <v>100</v>
       </c>
       <c r="F605" s="3">
-        <f>+F604+E605</f>
+        <f t="shared" si="9"/>
         <v>603557.25</v>
       </c>
       <c r="G605" s="2" t="s">
@@ -24202,7 +24205,7 @@
         <v>360</v>
       </c>
       <c r="F606" s="3">
-        <f>+F605+E606</f>
+        <f t="shared" si="9"/>
         <v>603917.25</v>
       </c>
       <c r="G606" s="9" t="s">
@@ -24238,7 +24241,7 @@
         <v>2940</v>
       </c>
       <c r="F607" s="3">
-        <f>+F606+E607</f>
+        <f t="shared" si="9"/>
         <v>606857.25</v>
       </c>
       <c r="G607" s="2" t="s">
@@ -24274,7 +24277,7 @@
         <v>100</v>
       </c>
       <c r="F608" s="3">
-        <f>+F607+E608</f>
+        <f t="shared" si="9"/>
         <v>606957.25</v>
       </c>
       <c r="G608" s="9" t="s">
@@ -24310,7 +24313,7 @@
         <v>320</v>
       </c>
       <c r="F609" s="3">
-        <f>+F608+E609</f>
+        <f t="shared" si="9"/>
         <v>607277.25</v>
       </c>
       <c r="G609" s="2" t="s">
@@ -24346,7 +24349,7 @@
         <v>360</v>
       </c>
       <c r="F610" s="3">
-        <f>+F609+E610</f>
+        <f t="shared" si="9"/>
         <v>607637.25</v>
       </c>
       <c r="G610" s="9" t="s">
@@ -24382,7 +24385,7 @@
         <v>360</v>
       </c>
       <c r="F611" s="3">
-        <f>+F610+E611</f>
+        <f t="shared" si="9"/>
         <v>607997.25</v>
       </c>
       <c r="G611" s="2" t="s">
@@ -24418,7 +24421,7 @@
         <v>385</v>
       </c>
       <c r="F612" s="3">
-        <f>+F611+E612</f>
+        <f t="shared" si="9"/>
         <v>608382.25</v>
       </c>
       <c r="G612" s="9" t="s">
@@ -24454,7 +24457,7 @@
         <v>595</v>
       </c>
       <c r="F613" s="3">
-        <f>+F612+E613</f>
+        <f t="shared" si="9"/>
         <v>608977.25</v>
       </c>
       <c r="G613" s="2" t="s">
@@ -24490,7 +24493,7 @@
         <v>360</v>
       </c>
       <c r="F614" s="3">
-        <f>+F613+E614</f>
+        <f t="shared" si="9"/>
         <v>609337.25</v>
       </c>
       <c r="G614" s="9" t="s">
@@ -24526,7 +24529,7 @@
         <v>360</v>
       </c>
       <c r="F615" s="3">
-        <f>+F614+E615</f>
+        <f t="shared" si="9"/>
         <v>609697.25</v>
       </c>
       <c r="G615" s="2" t="s">
@@ -24562,7 +24565,7 @@
         <v>350</v>
       </c>
       <c r="F616" s="3">
-        <f>+F615+E616</f>
+        <f t="shared" si="9"/>
         <v>610047.25</v>
       </c>
       <c r="G616" s="9" t="s">
@@ -24598,7 +24601,7 @@
         <v>385</v>
       </c>
       <c r="F617" s="3">
-        <f>+F616+E617</f>
+        <f t="shared" si="9"/>
         <v>610432.25</v>
       </c>
       <c r="G617" s="2" t="s">
@@ -24634,7 +24637,7 @@
         <v>360</v>
       </c>
       <c r="F618" s="3">
-        <f>+F617+E618</f>
+        <f t="shared" si="9"/>
         <v>610792.25</v>
       </c>
       <c r="G618" s="9" t="s">
@@ -24670,7 +24673,7 @@
         <v>360</v>
       </c>
       <c r="F619" s="3">
-        <f>+F618+E619</f>
+        <f t="shared" si="9"/>
         <v>611152.25</v>
       </c>
       <c r="G619" s="2" t="s">
@@ -24706,7 +24709,7 @@
         <v>70</v>
       </c>
       <c r="F620" s="3">
-        <f>+F619+E620</f>
+        <f t="shared" si="9"/>
         <v>611222.25</v>
       </c>
       <c r="G620" s="9" t="s">
@@ -24742,7 +24745,7 @@
         <v>595</v>
       </c>
       <c r="F621" s="3">
-        <f>+F620+E621</f>
+        <f t="shared" si="9"/>
         <v>611817.25</v>
       </c>
       <c r="G621" s="2" t="s">
@@ -24778,7 +24781,7 @@
         <v>385</v>
       </c>
       <c r="F622" s="3">
-        <f>+F621+E622</f>
+        <f t="shared" si="9"/>
         <v>612202.25</v>
       </c>
       <c r="G622" s="9" t="s">
@@ -24814,7 +24817,7 @@
         <v>1020</v>
       </c>
       <c r="F623" s="3">
-        <f>+F622+E623</f>
+        <f t="shared" si="9"/>
         <v>613222.25</v>
       </c>
       <c r="G623" s="2" t="s">
@@ -24850,7 +24853,7 @@
         <v>1020</v>
       </c>
       <c r="F624" s="3">
-        <f>+F623+E624</f>
+        <f t="shared" si="9"/>
         <v>614242.25</v>
       </c>
       <c r="G624" s="9" t="s">
@@ -24886,7 +24889,7 @@
         <v>385</v>
       </c>
       <c r="F625" s="3">
-        <f>+F624+E625</f>
+        <f t="shared" si="9"/>
         <v>614627.25</v>
       </c>
       <c r="G625" s="2" t="s">
@@ -24922,7 +24925,7 @@
         <v>360</v>
       </c>
       <c r="F626" s="3">
-        <f>+F625+E626</f>
+        <f t="shared" si="9"/>
         <v>614987.25</v>
       </c>
       <c r="G626" s="9" t="s">
@@ -24958,7 +24961,7 @@
         <v>385</v>
       </c>
       <c r="F627" s="3">
-        <f>+F626+E627</f>
+        <f t="shared" si="9"/>
         <v>615372.25</v>
       </c>
       <c r="G627" s="2" t="s">
@@ -24994,7 +24997,7 @@
         <v>360</v>
       </c>
       <c r="F628" s="3">
-        <f>+F627+E628</f>
+        <f t="shared" si="9"/>
         <v>615732.25</v>
       </c>
       <c r="G628" s="9" t="s">
@@ -25030,7 +25033,7 @@
         <v>360</v>
       </c>
       <c r="F629" s="3">
-        <f>+F628+E629</f>
+        <f t="shared" si="9"/>
         <v>616092.25</v>
       </c>
       <c r="G629" s="2" t="s">
@@ -25066,7 +25069,7 @@
         <v>385</v>
       </c>
       <c r="F630" s="3">
-        <f>+F629+E630</f>
+        <f t="shared" si="9"/>
         <v>616477.25</v>
       </c>
       <c r="G630" s="9" t="s">
@@ -25102,7 +25105,7 @@
         <v>3825</v>
       </c>
       <c r="F631" s="3">
-        <f>+F630+E631</f>
+        <f t="shared" si="9"/>
         <v>620302.25</v>
       </c>
       <c r="G631" s="2" t="s">
@@ -25138,7 +25141,7 @@
         <v>1400</v>
       </c>
       <c r="F632" s="3">
-        <f>+F631+E632</f>
+        <f t="shared" si="9"/>
         <v>621702.25</v>
       </c>
       <c r="G632" s="9" t="s">
@@ -25174,7 +25177,7 @@
         <v>350</v>
       </c>
       <c r="F633" s="3">
-        <f>+F632+E633</f>
+        <f t="shared" si="9"/>
         <v>622052.25</v>
       </c>
       <c r="G633" s="2" t="s">
@@ -25210,7 +25213,7 @@
         <v>385</v>
       </c>
       <c r="F634" s="3">
-        <f>+F633+E634</f>
+        <f t="shared" si="9"/>
         <v>622437.25</v>
       </c>
       <c r="G634" s="9" t="s">
@@ -25246,7 +25249,7 @@
         <v>360</v>
       </c>
       <c r="F635" s="3">
-        <f>+F634+E635</f>
+        <f t="shared" si="9"/>
         <v>622797.25</v>
       </c>
       <c r="G635" s="2" t="s">
@@ -25282,7 +25285,7 @@
         <v>320</v>
       </c>
       <c r="F636" s="3">
-        <f>+F635+E636</f>
+        <f t="shared" si="9"/>
         <v>623117.25</v>
       </c>
       <c r="G636" s="9" t="s">
@@ -25318,7 +25321,7 @@
         <v>76</v>
       </c>
       <c r="F637" s="3">
-        <f>+F636+E637</f>
+        <f t="shared" si="9"/>
         <v>623193.25</v>
       </c>
       <c r="G637" s="2" t="s">
@@ -25354,7 +25357,7 @@
         <v>420</v>
       </c>
       <c r="F638" s="3">
-        <f>+F637+E638</f>
+        <f t="shared" si="9"/>
         <v>623613.25</v>
       </c>
       <c r="G638" s="9" t="s">
@@ -25390,7 +25393,7 @@
         <v>320</v>
       </c>
       <c r="F639" s="3">
-        <f>+F638+E639</f>
+        <f t="shared" si="9"/>
         <v>623933.25</v>
       </c>
       <c r="G639" s="2" t="s">
@@ -25426,7 +25429,7 @@
         <v>385</v>
       </c>
       <c r="F640" s="3">
-        <f>+F639+E640</f>
+        <f t="shared" si="9"/>
         <v>624318.25</v>
       </c>
       <c r="G640" s="9" t="s">
@@ -25462,7 +25465,7 @@
         <v>3067.34</v>
       </c>
       <c r="F641" s="3">
-        <f>+F640+E641</f>
+        <f t="shared" si="9"/>
         <v>627385.59</v>
       </c>
       <c r="G641" s="2" t="s">
@@ -25498,7 +25501,7 @@
         <v>595</v>
       </c>
       <c r="F642" s="3">
-        <f>+F641+E642</f>
+        <f t="shared" ref="F642:F705" si="10">+F641+E642</f>
         <v>627980.59</v>
       </c>
       <c r="G642" s="9" t="s">
@@ -25534,7 +25537,7 @@
         <v>595</v>
       </c>
       <c r="F643" s="3">
-        <f>+F642+E643</f>
+        <f t="shared" si="10"/>
         <v>628575.59</v>
       </c>
       <c r="G643" s="2" t="s">
@@ -25570,7 +25573,7 @@
         <v>1440</v>
       </c>
       <c r="F644" s="3">
-        <f>+F643+E644</f>
+        <f t="shared" si="10"/>
         <v>630015.59</v>
       </c>
       <c r="G644" s="9" t="s">
@@ -25606,7 +25609,7 @@
         <v>540</v>
       </c>
       <c r="F645" s="3">
-        <f>+F644+E645</f>
+        <f t="shared" si="10"/>
         <v>630555.59</v>
       </c>
       <c r="G645" s="2" t="s">
@@ -25642,7 +25645,7 @@
         <v>70</v>
       </c>
       <c r="F646" s="3">
-        <f>+F645+E646</f>
+        <f t="shared" si="10"/>
         <v>630625.59</v>
       </c>
       <c r="G646" s="9" t="s">
@@ -25678,7 +25681,7 @@
         <v>350</v>
       </c>
       <c r="F647" s="3">
-        <f>+F646+E647</f>
+        <f t="shared" si="10"/>
         <v>630975.59</v>
       </c>
       <c r="G647" s="2" t="s">
@@ -25714,7 +25717,7 @@
         <v>2520</v>
       </c>
       <c r="F648" s="3">
-        <f>+F647+E648</f>
+        <f t="shared" si="10"/>
         <v>633495.59</v>
       </c>
       <c r="G648" s="9" t="s">
@@ -25750,7 +25753,7 @@
         <v>360</v>
       </c>
       <c r="F649" s="3">
-        <f>+F648+E649</f>
+        <f t="shared" si="10"/>
         <v>633855.59</v>
       </c>
       <c r="G649" s="2" t="s">
@@ -25786,7 +25789,7 @@
         <v>420</v>
       </c>
       <c r="F650" s="3">
-        <f>+F649+E650</f>
+        <f t="shared" si="10"/>
         <v>634275.59</v>
       </c>
       <c r="G650" s="9" t="s">
@@ -25822,7 +25825,7 @@
         <v>70</v>
       </c>
       <c r="F651" s="3">
-        <f>+F650+E651</f>
+        <f t="shared" si="10"/>
         <v>634345.59</v>
       </c>
       <c r="G651" s="2" t="s">
@@ -25858,7 +25861,7 @@
         <v>385</v>
       </c>
       <c r="F652" s="3">
-        <f>+F651+E652</f>
+        <f t="shared" si="10"/>
         <v>634730.59</v>
       </c>
       <c r="G652" s="9" t="s">
@@ -25894,7 +25897,7 @@
         <v>700</v>
       </c>
       <c r="F653" s="3">
-        <f>+F652+E653</f>
+        <f t="shared" si="10"/>
         <v>635430.59</v>
       </c>
       <c r="G653" s="2" t="s">
